--- a/data/nzd0510/nzd0510.xlsx
+++ b/data/nzd0510/nzd0510.xlsx
@@ -28366,7 +28366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28457,35 +28457,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -28538,27 +28543,28 @@
       <c r="P2" t="n">
         <v>280.2496217652368</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.5520645519214 -45.904327883599024, 170.55052925434035 -45.912152307552546)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.5520645519214</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.90432788359902</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.5505292543403</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.91215230755255</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.5512969031309</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.90824009557578</v>
       </c>
     </row>
@@ -28615,27 +28621,28 @@
       <c r="P3" t="n">
         <v>328.7178596310064</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.55103313483056 -45.904244736348566, 170.5498577391575 -45.91209942577365)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.5510331348306</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.90424473634857</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.5498577391575</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.91209942577365</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.550445436994</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.90817208106111</v>
       </c>
     </row>
@@ -28692,27 +28699,28 @@
       <c r="P4" t="n">
         <v>340.5617343424692</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.5499924162516 -45.904204386471775, 170.5491888314532 -45.91208182593114)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.5499924162516</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.90420438647178</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.5491888314532</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.91208182593114</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.5495906238524</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.90814310620146</v>
       </c>
     </row>
@@ -28769,27 +28777,28 @@
       <c r="P5" t="n">
         <v>338.4662755069415</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.54906705550056 -45.90417243634183, 170.5483362816034 -45.91205332364854)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.5490670555006</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.90417243634183</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.5483362816034</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.91205332364854</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.548701668552</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.90811287999519</v>
       </c>
     </row>
@@ -28846,27 +28855,28 @@
       <c r="P6" t="n">
         <v>337.7558992093006</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.5480233088453 -45.90414405485611, 170.54767146834945 -45.91203759406417)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.5480233088453</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.90414405485611</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.5476714683494</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.91203759406417</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.5478473885974</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.90809082446014</v>
       </c>
     </row>
@@ -28917,27 +28927,28 @@
       <c r="P7" t="n">
         <v>335.2027514033571</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.54700276477584 -45.904154037193024, 170.5469677811189 -45.91205135316766)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.5470027647758</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.90415403719302</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.5469677811189</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.91205135316766</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.5469852729474</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.90810269518035</v>
       </c>
     </row>
@@ -28988,27 +28999,28 @@
       <c r="P8" t="n">
         <v>334.4769203275605</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.54610462263517 -45.904165233492506, 170.5460695518133 -45.91206254641183)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.5461046226352</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.90416523349251</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.5460695518133</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.91206254641183</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.5460870872242</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.90811388995217</v>
       </c>
     </row>
@@ -29059,27 +29071,28 @@
       <c r="P9" t="n">
         <v>329.8793721412385</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.54536475749146 -45.904178454704336, 170.54491976654873 -45.91206969706931)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.5453647574915</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.90417845470434</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.5449197665487</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.91206969706931</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.5451422620201</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.90812407588682</v>
       </c>
     </row>
@@ -29130,27 +29143,28 @@
       <c r="P10" t="n">
         <v>329.6529898872718</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.5444860059368 -45.90414489850688, 170.54399465336277 -45.912034801619875)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.5444860059368</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.90414489850688</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.5439946533628</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.91203480161987</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.5442403296498</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.90808985006338</v>
       </c>
     </row>
@@ -29207,27 +29221,28 @@
       <c r="P11" t="n">
         <v>325.7354436806295</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (170.54339379136687 -45.90414852864124, 170.54340865837315 -45.91204586711368)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>170.5433937913669</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-45.90414852864124</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>170.5434086583732</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-45.91204586711368</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>170.54340122487</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-45.90809719787746</v>
       </c>
     </row>
@@ -29278,27 +29293,28 @@
       <c r="P12" t="n">
         <v>314.6067686478384</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (170.54255575086003 -45.90417042505933, 170.54241728355294 -45.91206717425238)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>170.54255575086</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-45.90417042505933</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>170.5424172835529</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-45.91206717425238</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>170.5424865172065</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-45.90811879965585</v>
       </c>
     </row>
@@ -29349,27 +29365,28 @@
       <c r="P13" t="n">
         <v>319.8314515200399</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (170.54175105923008 -45.90416095408365, 170.54137051502647 -45.91205382799426)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>170.5417510592301</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-45.90416095408365</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>170.5413705150265</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-45.91205382799426</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>170.5415607871283</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-45.90810739103895</v>
       </c>
     </row>
@@ -29426,27 +29443,28 @@
       <c r="P14" t="n">
         <v>320.8380726190279</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (170.54071096444574 -45.90415459264334, 170.54069759982508 -45.91205192463947)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>170.5407109644457</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-45.90415459264334</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>170.5406975998251</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-45.91205192463947</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>170.5407042821354</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-45.9081032586414</v>
       </c>
     </row>
@@ -29503,27 +29521,28 @@
       <c r="P15" t="n">
         <v>316.7201064805129</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (170.53963202481393 -45.904187205421096, 170.54009029993034 -45.91207807753486)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>170.5396320248139</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-45.9041872054211</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>170.5400902999303</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-45.91207807753486</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>170.5398611623721</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-45.90813264147798</v>
       </c>
     </row>
@@ -29580,27 +29599,28 @@
       <c r="P16" t="n">
         <v>309.389806164057</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (170.53851986683839 -45.90424460739927, 170.53953869136146 -45.91210992800313)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>170.5385198668384</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-45.90424460739927</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>170.5395386913615</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-45.91210992800313</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>170.5390292790999</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-45.90817726770121</v>
       </c>
     </row>
@@ -29657,27 +29677,28 @@
       <c r="P17" t="n">
         <v>311.6325865364071</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (170.53748026906285 -45.904347810949815, 170.53890355534114 -45.91218253599478)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>170.5374802690629</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-45.90434781094982</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>170.5389035553411</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-45.91218253599478</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>170.538191912202</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-45.9082651734723</v>
       </c>
     </row>

--- a/data/nzd0510/nzd0510.xlsx
+++ b/data/nzd0510/nzd0510.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R440"/>
+  <dimension ref="A1:R443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23294,6 +23294,186 @@
         </is>
       </c>
     </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>288.45</v>
+      </c>
+      <c r="C441" t="n">
+        <v>326.35</v>
+      </c>
+      <c r="D441" t="n">
+        <v>335.9363636363636</v>
+      </c>
+      <c r="E441" t="n">
+        <v>340.1933333333333</v>
+      </c>
+      <c r="F441" t="n">
+        <v>343.0976923076923</v>
+      </c>
+      <c r="G441" t="n">
+        <v>340.8222033898305</v>
+      </c>
+      <c r="H441" t="n">
+        <v>337.6016981132075</v>
+      </c>
+      <c r="I441" t="n">
+        <v>330.2836170212766</v>
+      </c>
+      <c r="J441" t="n">
+        <v>322.5163414634146</v>
+      </c>
+      <c r="K441" t="n">
+        <v>321.3428571428572</v>
+      </c>
+      <c r="L441" t="n">
+        <v>315.221052631579</v>
+      </c>
+      <c r="M441" t="n">
+        <v>333.3394117647059</v>
+      </c>
+      <c r="N441" t="n">
+        <v>332.97</v>
+      </c>
+      <c r="O441" t="n">
+        <v>339.5263636363636</v>
+      </c>
+      <c r="P441" t="n">
+        <v>323.62</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>315.6428571428572</v>
+      </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>302.0733333333333</v>
+      </c>
+      <c r="C442" t="n">
+        <v>337.9733333333333</v>
+      </c>
+      <c r="D442" t="n">
+        <v>347.6081818181818</v>
+      </c>
+      <c r="E442" t="n">
+        <v>347.5355555555556</v>
+      </c>
+      <c r="F442" t="n">
+        <v>353.9830769230769</v>
+      </c>
+      <c r="G442" t="n">
+        <v>353.3237288135593</v>
+      </c>
+      <c r="H442" t="n">
+        <v>349.7577358490566</v>
+      </c>
+      <c r="I442" t="n">
+        <v>342.7985106382979</v>
+      </c>
+      <c r="J442" t="n">
+        <v>339.7448780487805</v>
+      </c>
+      <c r="K442" t="n">
+        <v>332.4928571428572</v>
+      </c>
+      <c r="L442" t="n">
+        <v>344.7652631578948</v>
+      </c>
+      <c r="M442" t="n">
+        <v>352.8341176470589</v>
+      </c>
+      <c r="N442" t="n">
+        <v>354.7</v>
+      </c>
+      <c r="O442" t="n">
+        <v>354.0581818181818</v>
+      </c>
+      <c r="P442" t="n">
+        <v>341.18</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>333.6728571428571</v>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>262.0766666666667</v>
+      </c>
+      <c r="C443" t="n">
+        <v>315.5266666666667</v>
+      </c>
+      <c r="D443" t="n">
+        <v>339.8354545454546</v>
+      </c>
+      <c r="E443" t="n">
+        <v>344.1944444444445</v>
+      </c>
+      <c r="F443" t="n">
+        <v>353.1430769230769</v>
+      </c>
+      <c r="G443" t="n">
+        <v>349.8105084745763</v>
+      </c>
+      <c r="H443" t="n">
+        <v>343.1233962264151</v>
+      </c>
+      <c r="I443" t="n">
+        <v>327.5404255319149</v>
+      </c>
+      <c r="J443" t="n">
+        <v>330.0263414634146</v>
+      </c>
+      <c r="K443" t="n">
+        <v>330.3114285714286</v>
+      </c>
+      <c r="L443" t="n">
+        <v>330.0457894736842</v>
+      </c>
+      <c r="M443" t="n">
+        <v>337.2505882352941</v>
+      </c>
+      <c r="N443" t="n">
+        <v>345.67</v>
+      </c>
+      <c r="O443" t="n">
+        <v>327.8854545454545</v>
+      </c>
+      <c r="P443" t="n">
+        <v>326.07</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>330.7014285714285</v>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23305,7 +23485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B504"/>
+  <dimension ref="A1:B507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28353,6 +28533,36 @@
       </c>
       <c r="B504" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -28520,28 +28730,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.6100106270152035</v>
+        <v>-0.5748269941374204</v>
       </c>
       <c r="J2" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K2" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01434744211097405</v>
+        <v>0.01293459005648245</v>
       </c>
       <c r="M2" t="n">
-        <v>33.3160442048833</v>
+        <v>33.20233475391515</v>
       </c>
       <c r="N2" t="n">
-        <v>1449.952698401344</v>
+        <v>1441.645473124509</v>
       </c>
       <c r="O2" t="n">
-        <v>38.0782444238353</v>
+        <v>37.96900674398145</v>
       </c>
       <c r="P2" t="n">
-        <v>280.2496217652368</v>
+        <v>279.9020886087897</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28598,28 +28808,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.92090792508401</v>
+        <v>-1.835551011808278</v>
       </c>
       <c r="J3" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K3" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1130226860646323</v>
+        <v>0.1048138891720571</v>
       </c>
       <c r="M3" t="n">
-        <v>30.45454451574563</v>
+        <v>30.44309388698661</v>
       </c>
       <c r="N3" t="n">
-        <v>1684.67513362973</v>
+        <v>1690.199994827343</v>
       </c>
       <c r="O3" t="n">
-        <v>41.04479423300511</v>
+        <v>41.11204196859289</v>
       </c>
       <c r="P3" t="n">
-        <v>328.7178596310064</v>
+        <v>327.910800375129</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28676,28 +28886,28 @@
         <v>0.075</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.690061537884306</v>
+        <v>-1.617025665905084</v>
       </c>
       <c r="J4" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K4" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1755357118501739</v>
+        <v>0.1625135326190863</v>
       </c>
       <c r="M4" t="n">
-        <v>20.78776948345365</v>
+        <v>20.86214942264729</v>
       </c>
       <c r="N4" t="n">
-        <v>785.2674042455271</v>
+        <v>795.5681041382237</v>
       </c>
       <c r="O4" t="n">
-        <v>28.02262307931802</v>
+        <v>28.20581684933488</v>
       </c>
       <c r="P4" t="n">
-        <v>340.5617343424692</v>
+        <v>339.8718942289658</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28754,28 +28964,28 @@
         <v>0.1377</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.440615754790557</v>
+        <v>-1.371029641380788</v>
       </c>
       <c r="J5" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K5" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L5" t="n">
-        <v>0.141042976349194</v>
+        <v>0.1289799713684023</v>
       </c>
       <c r="M5" t="n">
-        <v>19.99719647881926</v>
+        <v>20.08707288765338</v>
       </c>
       <c r="N5" t="n">
-        <v>716.4730575963655</v>
+        <v>725.7901547715088</v>
       </c>
       <c r="O5" t="n">
-        <v>26.76701435715918</v>
+        <v>26.94049284574261</v>
       </c>
       <c r="P5" t="n">
-        <v>338.4662755069415</v>
+        <v>337.794000776065</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28832,28 +29042,28 @@
         <v>0.0867</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.269149646166823</v>
+        <v>-1.196687760477147</v>
       </c>
       <c r="J6" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K6" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1424742150317125</v>
+        <v>0.1270772346827478</v>
       </c>
       <c r="M6" t="n">
-        <v>17.58203654586859</v>
+        <v>17.69570645801931</v>
       </c>
       <c r="N6" t="n">
-        <v>557.1752144496654</v>
+        <v>569.9722001541388</v>
       </c>
       <c r="O6" t="n">
-        <v>23.60455918778543</v>
+        <v>23.87409056182327</v>
       </c>
       <c r="P6" t="n">
-        <v>337.7558992093006</v>
+        <v>337.0581767469393</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28904,28 +29114,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1.243417607956001</v>
+        <v>-1.170661647273747</v>
       </c>
       <c r="J7" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K7" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1566400895397796</v>
+        <v>0.1389616183211729</v>
       </c>
       <c r="M7" t="n">
-        <v>16.42800357221756</v>
+        <v>16.59640708511463</v>
       </c>
       <c r="N7" t="n">
-        <v>481.8716619241747</v>
+        <v>495.5020242681056</v>
       </c>
       <c r="O7" t="n">
-        <v>21.95157538593016</v>
+        <v>22.25987475858985</v>
       </c>
       <c r="P7" t="n">
-        <v>335.2027514033571</v>
+        <v>334.5031515559619</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28976,28 +29186,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-1.571955873324659</v>
+        <v>-1.492595371493432</v>
       </c>
       <c r="J8" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K8" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1640302459642629</v>
+        <v>0.1487997508685832</v>
       </c>
       <c r="M8" t="n">
-        <v>19.78354977471153</v>
+        <v>19.92058546477611</v>
       </c>
       <c r="N8" t="n">
-        <v>743.7922287623921</v>
+        <v>758.7989962711137</v>
       </c>
       <c r="O8" t="n">
-        <v>27.27255449646021</v>
+        <v>27.54630639979004</v>
       </c>
       <c r="P8" t="n">
-        <v>334.4769203275605</v>
+        <v>333.7283626638603</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29048,28 +29258,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-1.391946923711859</v>
+        <v>-1.328595935178051</v>
       </c>
       <c r="J9" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K9" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1432543144695119</v>
+        <v>0.1317467551559963</v>
       </c>
       <c r="M9" t="n">
-        <v>19.32567287942079</v>
+        <v>19.45627717160432</v>
       </c>
       <c r="N9" t="n">
-        <v>675.9432703724764</v>
+        <v>683.9269985181561</v>
       </c>
       <c r="O9" t="n">
-        <v>25.99890902273548</v>
+        <v>26.1519979832929</v>
       </c>
       <c r="P9" t="n">
-        <v>329.8793721412385</v>
+        <v>329.2730813475967</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29120,28 +29330,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-1.309899572519933</v>
+        <v>-1.255837290347205</v>
       </c>
       <c r="J10" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1163057186801923</v>
+        <v>0.1081512518435024</v>
       </c>
       <c r="M10" t="n">
-        <v>20.05611926401034</v>
+        <v>20.10406299131138</v>
       </c>
       <c r="N10" t="n">
-        <v>758.9340925378951</v>
+        <v>762.9852089232173</v>
       </c>
       <c r="O10" t="n">
-        <v>27.54875845728615</v>
+        <v>27.62218689610251</v>
       </c>
       <c r="P10" t="n">
-        <v>329.6529898872718</v>
+        <v>329.1364502385921</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29198,28 +29408,28 @@
         <v>0.0433</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.423770700403177</v>
+        <v>-1.3626905031426</v>
       </c>
       <c r="J11" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K11" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1383708015521945</v>
+        <v>0.1281090815014938</v>
       </c>
       <c r="M11" t="n">
-        <v>20.05240305470311</v>
+        <v>20.10487571106818</v>
       </c>
       <c r="N11" t="n">
-        <v>720.1133740297047</v>
+        <v>726.7839458718018</v>
       </c>
       <c r="O11" t="n">
-        <v>26.83492824715029</v>
+        <v>26.95893072567608</v>
       </c>
       <c r="P11" t="n">
-        <v>325.7354436806295</v>
+        <v>325.1453384975197</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29270,28 +29480,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.15456685474094</v>
+        <v>-1.083122732151403</v>
       </c>
       <c r="J12" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K12" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08656519944038765</v>
+        <v>0.07654894280763103</v>
       </c>
       <c r="M12" t="n">
-        <v>22.33815394705766</v>
+        <v>22.42936576966968</v>
       </c>
       <c r="N12" t="n">
-        <v>802.7436501016323</v>
+        <v>814.23806423477</v>
       </c>
       <c r="O12" t="n">
-        <v>28.332731073824</v>
+        <v>28.53485700393065</v>
       </c>
       <c r="P12" t="n">
-        <v>314.6067686478384</v>
+        <v>313.9168712155399</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29342,28 +29552,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-1.080935998612401</v>
+        <v>-1.003464117647414</v>
       </c>
       <c r="J13" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K13" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08931728727046861</v>
+        <v>0.07690281716767577</v>
       </c>
       <c r="M13" t="n">
-        <v>20.10060657879505</v>
+        <v>20.22693727365536</v>
       </c>
       <c r="N13" t="n">
-        <v>672.4774353086893</v>
+        <v>687.6380639308758</v>
       </c>
       <c r="O13" t="n">
-        <v>25.93216989202194</v>
+        <v>26.22285384794866</v>
       </c>
       <c r="P13" t="n">
-        <v>319.8314515200399</v>
+        <v>319.0739920520405</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29420,28 +29630,28 @@
         <v>0.0303</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.195595271700106</v>
+        <v>-1.109725061805017</v>
       </c>
       <c r="J14" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K14" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09999966073826705</v>
+        <v>0.0859206765350623</v>
       </c>
       <c r="M14" t="n">
-        <v>21.0195491272071</v>
+        <v>21.20366459029911</v>
       </c>
       <c r="N14" t="n">
-        <v>733.8336182294189</v>
+        <v>753.2407296512956</v>
       </c>
       <c r="O14" t="n">
-        <v>27.0893635626498</v>
+        <v>27.44523145559709</v>
       </c>
       <c r="P14" t="n">
-        <v>320.8380726190279</v>
+        <v>320.0056594374429</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29498,28 +29708,28 @@
         <v>0.077</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.164548939767455</v>
+        <v>-1.082693641765392</v>
       </c>
       <c r="J15" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K15" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1214013273398044</v>
+        <v>0.1040099246745708</v>
       </c>
       <c r="M15" t="n">
-        <v>18.16026418280384</v>
+        <v>18.47339314602274</v>
       </c>
       <c r="N15" t="n">
-        <v>556.8095332201365</v>
+        <v>577.0362186039849</v>
       </c>
       <c r="O15" t="n">
-        <v>23.59681192915976</v>
+        <v>24.02157818720462</v>
       </c>
       <c r="P15" t="n">
-        <v>316.7201064805129</v>
+        <v>315.9173356935988</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29576,28 +29786,28 @@
         <v>0.0476</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.8712702633812824</v>
+        <v>-0.7972699369356835</v>
       </c>
       <c r="J16" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K16" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08660165955384425</v>
+        <v>0.07221818311109451</v>
       </c>
       <c r="M16" t="n">
-        <v>16.59424536812611</v>
+        <v>16.80350865319766</v>
       </c>
       <c r="N16" t="n">
-        <v>475.0144929591332</v>
+        <v>488.6571679143054</v>
       </c>
       <c r="O16" t="n">
-        <v>21.79482720645276</v>
+        <v>22.10559132695403</v>
       </c>
       <c r="P16" t="n">
-        <v>309.389806164057</v>
+        <v>308.6942899234317</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29654,28 +29864,28 @@
         <v>0.0435</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4522327085665864</v>
+        <v>-0.4109249201980232</v>
       </c>
       <c r="J17" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K17" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03142420608711982</v>
+        <v>0.02602902637243809</v>
       </c>
       <c r="M17" t="n">
-        <v>14.74526706462726</v>
+        <v>14.83521913331154</v>
       </c>
       <c r="N17" t="n">
-        <v>357.7085055408307</v>
+        <v>361.1630467371297</v>
       </c>
       <c r="O17" t="n">
-        <v>18.91318337934761</v>
+        <v>19.00429021924075</v>
       </c>
       <c r="P17" t="n">
-        <v>311.6325865364071</v>
+        <v>311.2266310234973</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29713,7 +29923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R440"/>
+  <dimension ref="A1:R443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63053,6 +63263,282 @@
         </is>
       </c>
     </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>-45.90689892053383,170.55156012003482</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>-45.90716485659165,170.55059620517406</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>-45.90721900397253,170.54968492490877</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>-45.907226592638104,170.54878388187655</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>-45.90722923738125,170.54788580978015</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>-45.90722022549913,170.54698918882482</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>-45.907202447638376,170.54609114148798</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>-45.907147546321326,170.54519734933234</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>-45.90704367269173,170.5443055032032</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>-45.90703947964807,170.54339923858367</t>
+        </is>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>-45.907006090640024,170.5425060381469</t>
+        </is>
+      </c>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>-45.90715813557004,170.54160657245149</t>
+        </is>
+      </c>
+      <c r="N441" t="inlineStr">
+        <is>
+          <t>-45.9071501444291,170.54070590101526</t>
+        </is>
+      </c>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>-45.907239235107035,170.5398092663838</t>
+        </is>
+      </c>
+      <c r="P441" t="inlineStr">
+        <is>
+          <t>-45.90714421243756,170.53889543518576</t>
+        </is>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>-45.907164917847524,170.53799199417313</t>
+        </is>
+      </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>-45.9070203490762,170.55153629472488</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>-45.907268859984114,170.55058064245677</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>-45.9073237441952,170.54967424066842</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>-45.90729250893174,170.54877776986322</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>-45.90732712025238,170.54788144701232</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>-45.90733269475949,170.54698869069077</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>-45.90731180870056,170.54609065591617</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>-45.9072600491847,170.54519100553017</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>-45.907198522578284,170.54429586020237</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>-45.90713979025207,170.54339942749024</t>
+        </is>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>-45.90727186438025,170.5425013782373</t>
+        </is>
+      </c>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>-45.907333419828554,170.5415981217348</t>
+        </is>
+      </c>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>-45.90734563748734,170.54070557031827</t>
+        </is>
+      </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>-45.90736986275444,170.5398168526488</t>
+        </is>
+      </c>
+      <c r="P442" t="inlineStr">
+        <is>
+          <t>-45.90730154834992,170.53891581490532</t>
+        </is>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>-45.90732583520173,170.53802122607792</t>
+        </is>
+      </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>-45.906663847684186,170.5516062429904</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>-45.90706801144364,170.55061069669566</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>-45.90725399352157,170.54968135573375</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>-45.90726251342722,170.54878055116447</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>-45.90731956685727,170.54788178367787</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>-45.90730108827332,170.54698883067923</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>-45.907252123263504,170.5460909209256</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>-45.90712288635124,170.545198739852</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>-45.90711117248513,170.54430129978263</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>-45.90712016510265,170.5433993905324</t>
+        </is>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>-45.90713945097471,170.54250369990285</t>
+        </is>
+      </c>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>-45.90719330243443,170.5416048770104</t>
+        </is>
+      </c>
+      <c r="N443" t="inlineStr">
+        <is>
+          <t>-45.90726439946159,170.54070570774462</t>
+        </is>
+      </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>-45.90713459406518,170.53980318932034</t>
+        </is>
+      </c>
+      <c r="P443" t="inlineStr">
+        <is>
+          <t>-45.90716616420241,170.53889827859183</t>
+        </is>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>-45.90729931526753,170.53801640851256</t>
+        </is>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0510/nzd0510.xlsx
+++ b/data/nzd0510/nzd0510.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R443"/>
+  <dimension ref="A1:R446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23474,6 +23474,180 @@
         </is>
       </c>
     </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>262.6533333333333</v>
+      </c>
+      <c r="C444" t="n">
+        <v>318.3833333333333</v>
+      </c>
+      <c r="D444" t="n">
+        <v>334.5672727272727</v>
+      </c>
+      <c r="E444" t="n">
+        <v>343.6155555555555</v>
+      </c>
+      <c r="F444" t="n">
+        <v>351.9569230769231</v>
+      </c>
+      <c r="G444" t="n">
+        <v>347.71</v>
+      </c>
+      <c r="H444" t="n">
+        <v>333.8120754716981</v>
+      </c>
+      <c r="I444" t="n">
+        <v>324.3431914893617</v>
+      </c>
+      <c r="J444" t="n">
+        <v>327.250243902439</v>
+      </c>
+      <c r="K444" t="n">
+        <v>328.1371428571428</v>
+      </c>
+      <c r="L444" t="n">
+        <v>329.8515789473685</v>
+      </c>
+      <c r="M444" t="n">
+        <v>333.8335294117647</v>
+      </c>
+      <c r="N444" t="n">
+        <v>348.09</v>
+      </c>
+      <c r="O444" t="n">
+        <v>328.1072727272727</v>
+      </c>
+      <c r="P444" t="n">
+        <v>321.78</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>326.3771428571428</v>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>238.68</v>
+      </c>
+      <c r="C445" t="n">
+        <v>309.4</v>
+      </c>
+      <c r="D445" t="n">
+        <v>329.3109090909091</v>
+      </c>
+      <c r="E445" t="n">
+        <v>359.0033333333333</v>
+      </c>
+      <c r="F445" t="n">
+        <v>365.4692307692308</v>
+      </c>
+      <c r="G445" t="n">
+        <v>360.0705084745763</v>
+      </c>
+      <c r="H445" t="n">
+        <v>348.4892452830189</v>
+      </c>
+      <c r="I445" t="n">
+        <v>342.4740425531915</v>
+      </c>
+      <c r="J445" t="n">
+        <v>333.4058536585366</v>
+      </c>
+      <c r="K445" t="n">
+        <v>328.2971428571428</v>
+      </c>
+      <c r="L445" t="n">
+        <v>321.9126315789474</v>
+      </c>
+      <c r="M445" t="n">
+        <v>320.4135294117647</v>
+      </c>
+      <c r="N445" t="n">
+        <v>317.99</v>
+      </c>
+      <c r="O445" t="n">
+        <v>320.990909090909</v>
+      </c>
+      <c r="P445" t="n">
+        <v>312.86</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>306.6871428571428</v>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr"/>
+      <c r="C446" t="n">
+        <v>313.9433333333333</v>
+      </c>
+      <c r="D446" t="n">
+        <v>346.5172727272728</v>
+      </c>
+      <c r="E446" t="n">
+        <v>360.7188888888889</v>
+      </c>
+      <c r="F446" t="n">
+        <v>360.4892307692308</v>
+      </c>
+      <c r="G446" t="n">
+        <v>349.4071186440678</v>
+      </c>
+      <c r="H446" t="n">
+        <v>342.6364150943397</v>
+      </c>
+      <c r="I446" t="n">
+        <v>329.148085106383</v>
+      </c>
+      <c r="J446" t="n">
+        <v>321.6551219512195</v>
+      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
+      <c r="M446" t="n">
+        <v>295.3752941176471</v>
+      </c>
+      <c r="N446" t="n">
+        <v>291.56</v>
+      </c>
+      <c r="O446" t="n">
+        <v>304.9272727272727</v>
+      </c>
+      <c r="P446" t="n">
+        <v>310.48</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>291.5228571428572</v>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23485,7 +23659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B507"/>
+  <dimension ref="A1:B510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28563,6 +28737,36 @@
       </c>
       <c r="B507" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -28730,28 +28934,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.5748269941374204</v>
+        <v>-0.5920757779757396</v>
       </c>
       <c r="J2" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K2" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01293459005648245</v>
+        <v>0.01385312732568189</v>
       </c>
       <c r="M2" t="n">
-        <v>33.20233475391515</v>
+        <v>33.0660795134574</v>
       </c>
       <c r="N2" t="n">
-        <v>1441.645473124509</v>
+        <v>1434.159909776399</v>
       </c>
       <c r="O2" t="n">
-        <v>37.96900674398145</v>
+        <v>37.8703037983114</v>
       </c>
       <c r="P2" t="n">
-        <v>279.9020886087897</v>
+        <v>280.0738690954003</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28808,28 +29012,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.835551011808278</v>
+        <v>-1.776444858067531</v>
       </c>
       <c r="J3" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K3" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1048138891720571</v>
+        <v>0.09998060200236469</v>
       </c>
       <c r="M3" t="n">
-        <v>30.44309388698661</v>
+        <v>30.34360951182729</v>
       </c>
       <c r="N3" t="n">
-        <v>1690.199994827343</v>
+        <v>1684.181930420056</v>
       </c>
       <c r="O3" t="n">
-        <v>41.11204196859289</v>
+        <v>41.03878568403378</v>
       </c>
       <c r="P3" t="n">
-        <v>327.910800375129</v>
+        <v>327.3483455457086</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28886,28 +29090,28 @@
         <v>0.075</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.617025665905084</v>
+        <v>-1.553894807891723</v>
       </c>
       <c r="J4" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K4" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1625135326190863</v>
+        <v>0.1520094271428668</v>
       </c>
       <c r="M4" t="n">
-        <v>20.86214942264729</v>
+        <v>20.90754877923078</v>
       </c>
       <c r="N4" t="n">
-        <v>795.5681041382237</v>
+        <v>802.0182506159298</v>
       </c>
       <c r="O4" t="n">
-        <v>28.20581684933488</v>
+        <v>28.3199267410057</v>
       </c>
       <c r="P4" t="n">
-        <v>339.8718942289658</v>
+        <v>339.2718252289166</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28964,28 +29168,28 @@
         <v>0.1377</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.371029641380788</v>
+        <v>-1.287143108169222</v>
       </c>
       <c r="J5" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K5" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1289799713684023</v>
+        <v>0.1139031517251212</v>
       </c>
       <c r="M5" t="n">
-        <v>20.08707288765338</v>
+        <v>20.24492232553925</v>
       </c>
       <c r="N5" t="n">
-        <v>725.7901547715088</v>
+        <v>743.1290426261849</v>
       </c>
       <c r="O5" t="n">
-        <v>26.94049284574261</v>
+        <v>27.26039329551547</v>
       </c>
       <c r="P5" t="n">
-        <v>337.794000776065</v>
+        <v>336.9787193138656</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29042,28 +29246,28 @@
         <v>0.0867</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.196687760477147</v>
+        <v>-1.112283478472073</v>
       </c>
       <c r="J6" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K6" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1270772346827478</v>
+        <v>0.1091773432408754</v>
       </c>
       <c r="M6" t="n">
-        <v>17.69570645801931</v>
+        <v>17.87488561558065</v>
       </c>
       <c r="N6" t="n">
-        <v>569.9722001541388</v>
+        <v>589.5684672534213</v>
       </c>
       <c r="O6" t="n">
-        <v>23.87409056182327</v>
+        <v>24.28103101710101</v>
       </c>
       <c r="P6" t="n">
-        <v>337.0581767469393</v>
+        <v>336.2406511661991</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29114,28 +29318,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1.170661647273747</v>
+        <v>-1.093626737943783</v>
       </c>
       <c r="J7" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K7" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1389616183211729</v>
+        <v>0.1208528871881501</v>
       </c>
       <c r="M7" t="n">
-        <v>16.59640708511463</v>
+        <v>16.80155996045204</v>
       </c>
       <c r="N7" t="n">
-        <v>495.5020242681056</v>
+        <v>511.6773886477363</v>
       </c>
       <c r="O7" t="n">
-        <v>22.25987475858985</v>
+        <v>22.6202871035656</v>
       </c>
       <c r="P7" t="n">
-        <v>334.5031515559619</v>
+        <v>333.75795928773</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29186,28 +29390,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-1.492595371493432</v>
+        <v>-1.419164264653505</v>
       </c>
       <c r="J8" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K8" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1487997508685832</v>
+        <v>0.135500444906781</v>
       </c>
       <c r="M8" t="n">
-        <v>19.92058546477611</v>
+        <v>20.03767712140888</v>
       </c>
       <c r="N8" t="n">
-        <v>758.7989962711137</v>
+        <v>771.1513127089873</v>
       </c>
       <c r="O8" t="n">
-        <v>27.54630639979004</v>
+        <v>27.76961131721125</v>
       </c>
       <c r="P8" t="n">
-        <v>333.7283626638603</v>
+        <v>333.0313789582784</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29258,28 +29462,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-1.328595935178051</v>
+        <v>-1.270020675575201</v>
       </c>
       <c r="J9" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K9" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1317467551559963</v>
+        <v>0.1216008641894786</v>
       </c>
       <c r="M9" t="n">
-        <v>19.45627717160432</v>
+        <v>19.56520978056743</v>
       </c>
       <c r="N9" t="n">
-        <v>683.9269985181561</v>
+        <v>690.2788050358334</v>
       </c>
       <c r="O9" t="n">
-        <v>26.1519979832929</v>
+        <v>26.27315750030501</v>
       </c>
       <c r="P9" t="n">
-        <v>329.2730813475967</v>
+        <v>328.7088299107778</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29330,28 +29534,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-1.255837290347205</v>
+        <v>-1.208806394429948</v>
       </c>
       <c r="J10" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K10" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1081512518435024</v>
+        <v>0.1015182394392042</v>
       </c>
       <c r="M10" t="n">
-        <v>20.10406299131138</v>
+        <v>20.1289543407564</v>
       </c>
       <c r="N10" t="n">
-        <v>762.9852089232173</v>
+        <v>764.4901900229689</v>
       </c>
       <c r="O10" t="n">
-        <v>27.62218689610251</v>
+        <v>27.6494157266111</v>
       </c>
       <c r="P10" t="n">
-        <v>329.1364502385921</v>
+        <v>328.6844167406393</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29408,28 +29612,28 @@
         <v>0.0433</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.3626905031426</v>
+        <v>-1.323019099908201</v>
       </c>
       <c r="J11" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K11" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1281090815014938</v>
+        <v>0.1216256347071947</v>
       </c>
       <c r="M11" t="n">
-        <v>20.10487571106818</v>
+        <v>20.13519908279718</v>
       </c>
       <c r="N11" t="n">
-        <v>726.7839458718018</v>
+        <v>730.8085959169648</v>
       </c>
       <c r="O11" t="n">
-        <v>26.95893072567608</v>
+        <v>27.03347176958529</v>
       </c>
       <c r="P11" t="n">
-        <v>325.1453384975197</v>
+        <v>324.760235041848</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29480,28 +29684,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.083122732151403</v>
+        <v>-1.041324837448308</v>
       </c>
       <c r="J12" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K12" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07654894280763103</v>
+        <v>0.07116234594648563</v>
       </c>
       <c r="M12" t="n">
-        <v>22.42936576966968</v>
+        <v>22.47162829434914</v>
       </c>
       <c r="N12" t="n">
-        <v>814.23806423477</v>
+        <v>818.6387310148692</v>
       </c>
       <c r="O12" t="n">
-        <v>28.53485700393065</v>
+        <v>28.61186346631182</v>
       </c>
       <c r="P12" t="n">
-        <v>313.9168712155399</v>
+        <v>313.5113181346676</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29552,28 +29756,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-1.003464117647414</v>
+        <v>-0.9672444183494365</v>
       </c>
       <c r="J13" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K13" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07690281716767577</v>
+        <v>0.07227956390814916</v>
       </c>
       <c r="M13" t="n">
-        <v>20.22693727365536</v>
+        <v>20.19486067687394</v>
       </c>
       <c r="N13" t="n">
-        <v>687.6380639308758</v>
+        <v>688.4497390606538</v>
       </c>
       <c r="O13" t="n">
-        <v>26.22285384794866</v>
+        <v>26.23832576710362</v>
       </c>
       <c r="P13" t="n">
-        <v>319.0739920520405</v>
+        <v>318.7180805896791</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29630,28 +29834,28 @@
         <v>0.0303</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.109725061805017</v>
+        <v>-1.066522502981459</v>
       </c>
       <c r="J14" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K14" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0859206765350623</v>
+        <v>0.08000757978775863</v>
       </c>
       <c r="M14" t="n">
-        <v>21.20366459029911</v>
+        <v>21.21084843713482</v>
       </c>
       <c r="N14" t="n">
-        <v>753.2407296512956</v>
+        <v>757.8467268492233</v>
       </c>
       <c r="O14" t="n">
-        <v>27.44523145559709</v>
+        <v>27.52901608937783</v>
       </c>
       <c r="P14" t="n">
-        <v>320.0056594374429</v>
+        <v>319.584903893977</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29708,28 +29912,28 @@
         <v>0.077</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.082693641765392</v>
+        <v>-1.037579492510527</v>
       </c>
       <c r="J15" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K15" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1040099246745708</v>
+        <v>0.09646026646766748</v>
       </c>
       <c r="M15" t="n">
-        <v>18.47339314602274</v>
+        <v>18.57386416127369</v>
       </c>
       <c r="N15" t="n">
-        <v>577.0362186039849</v>
+        <v>580.3616199678376</v>
       </c>
       <c r="O15" t="n">
-        <v>24.02157818720462</v>
+        <v>24.09069571365339</v>
       </c>
       <c r="P15" t="n">
-        <v>315.9173356935988</v>
+        <v>315.4721937959201</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29786,28 +29990,28 @@
         <v>0.0476</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7972699369356835</v>
+        <v>-0.7520846177239724</v>
       </c>
       <c r="J16" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K16" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07221818311109451</v>
+        <v>0.06500520671343724</v>
       </c>
       <c r="M16" t="n">
-        <v>16.80350865319766</v>
+        <v>16.86876072738011</v>
       </c>
       <c r="N16" t="n">
-        <v>488.6571679143054</v>
+        <v>490.9347298059895</v>
       </c>
       <c r="O16" t="n">
-        <v>22.10559132695403</v>
+        <v>22.15704695590073</v>
       </c>
       <c r="P16" t="n">
-        <v>308.6942899234317</v>
+        <v>308.2669748971805</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29864,28 +30068,28 @@
         <v>0.0435</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.4109249201980232</v>
+        <v>-0.3994529349398976</v>
       </c>
       <c r="J17" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K17" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02602902637243809</v>
+        <v>0.02486311246072903</v>
       </c>
       <c r="M17" t="n">
-        <v>14.83521913331154</v>
+        <v>14.82227335186236</v>
       </c>
       <c r="N17" t="n">
-        <v>361.1630467371297</v>
+        <v>360.2776904292264</v>
       </c>
       <c r="O17" t="n">
-        <v>19.00429021924075</v>
+        <v>18.98098233572821</v>
       </c>
       <c r="P17" t="n">
-        <v>311.2266310234973</v>
+        <v>311.1135656663241</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29923,7 +30127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R443"/>
+  <dimension ref="A1:R446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63539,6 +63743,270 @@
         </is>
       </c>
     </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>-45.90666898767481,170.55160523449257</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>-45.90709357235933,170.55060687186784</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>-45.90720671806409,170.54968617815476</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>-45.90725731633446,170.548781033059</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>-45.907308900799315,170.54788225907893</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>-45.90728219116869,170.54698891437607</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>-45.90716835452588,170.54609129286192</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>-45.90709414475713,170.545200360523</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>-45.9070862209524,170.54430285359322</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>-45.90710060421362,170.54339935369526</t>
+        </is>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>-45.90713770389612,170.542503730535</t>
+        </is>
+      </c>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>-45.90716257836838,170.5416063582585</t>
+        </is>
+      </c>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t>-45.90728617089273,170.5407056709155</t>
+        </is>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>-45.907136588006175,170.539803305119</t>
+        </is>
+      </c>
+      <c r="P444" t="inlineStr">
+        <is>
+          <t>-45.9071277262141,170.538893299731</t>
+        </is>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>-45.90726072111288,170.53800939757258</t>
+        </is>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>-45.90645530666221,170.55164715984802</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>-45.907013191182386,170.55061889975516</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>-45.90715954865956,170.54969098974775</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>-45.90739546323704,170.5487682235068</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>-45.90743040532063,170.54787684343702</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>-45.90739339177699,170.54698842185476</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>-45.90730039680158,170.54609070658643</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>-45.907257132373,170.54519117000353</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>-45.90714154750142,170.54429940823215</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>-45.90710204364828,170.543399356406</t>
+        </is>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>-45.907066286731414,170.54250498271503</t>
+        </is>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>-45.90704191407953,170.5416121756215</t>
+        </is>
+      </c>
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>-45.907015377466834,170.5407061289697</t>
+        </is>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>-45.90707261845634,170.53979959007313</t>
+        </is>
+      </c>
+      <c r="P445" t="inlineStr">
+        <is>
+          <t>-45.90704780386908,170.53888294743282</t>
+        </is>
+      </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>-45.90708498829108,170.537977474396</t>
+        </is>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr"/>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>-45.90705384407484,170.55061281663936</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>-45.90731395462707,170.54967523927536</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>-45.90741086498537,170.54876679538813</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>-45.90738562447896,170.54787883939153</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>-45.90729745919974,170.54698884675273</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>-45.907247742167044,170.546090940378</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>-45.90713733843641,170.54519792493195</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>-45.907035932060616,170.5443059852353</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>-45.906816785840455,170.5416230292139</t>
+        </is>
+      </c>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>-45.906777601036964,170.540706531126</t>
+        </is>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>-45.90692822116934,170.5397912041888</t>
+        </is>
+      </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>-45.907026479296974,170.53888018527678</t>
+        </is>
+      </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>-45.90694964736419,170.5379528888313</t>
+        </is>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0510/nzd0510.xlsx
+++ b/data/nzd0510/nzd0510.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R446"/>
+  <dimension ref="A1:R447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23625,7 +23625,9 @@
       <c r="J446" t="n">
         <v>321.6551219512195</v>
       </c>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>287.8728571428572</v>
+      </c>
       <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>295.3752941176471</v>
@@ -23643,6 +23645,56 @@
         <v>291.5228571428572</v>
       </c>
       <c r="R446" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="n">
+        <v>336.3245454545454</v>
+      </c>
+      <c r="E447" t="n">
+        <v>334.2877777777778</v>
+      </c>
+      <c r="F447" t="n">
+        <v>326.2092307692308</v>
+      </c>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>320.8165853658537</v>
+      </c>
+      <c r="K447" t="n">
+        <v>315.4114285714285</v>
+      </c>
+      <c r="L447" t="n">
+        <v>323.7778947368421</v>
+      </c>
+      <c r="M447" t="n">
+        <v>325.6017647058824</v>
+      </c>
+      <c r="N447" t="n">
+        <v>324.52</v>
+      </c>
+      <c r="O447" t="n">
+        <v>324.2145454545454</v>
+      </c>
+      <c r="P447" t="n">
+        <v>312.91</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>314.8214285714286</v>
+      </c>
+      <c r="R447" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23659,7 +23711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B510"/>
+  <dimension ref="A1:B511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28767,6 +28819,16 @@
       </c>
       <c r="B510" t="n">
         <v>-0.73</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -28937,7 +28999,7 @@
         <v>-0.5920757779757396</v>
       </c>
       <c r="J2" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K2" t="n">
         <v>292</v>
@@ -29015,7 +29077,7 @@
         <v>-1.776444858067531</v>
       </c>
       <c r="J3" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K3" t="n">
         <v>302</v>
@@ -29090,28 +29152,28 @@
         <v>0.075</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.553894807891723</v>
+        <v>-1.533634520455949</v>
       </c>
       <c r="J4" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K4" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1520094271428668</v>
+        <v>0.1487360593119353</v>
       </c>
       <c r="M4" t="n">
-        <v>20.90754877923078</v>
+        <v>20.91991811954092</v>
       </c>
       <c r="N4" t="n">
-        <v>802.0182506159298</v>
+        <v>803.7477291365012</v>
       </c>
       <c r="O4" t="n">
-        <v>28.3199267410057</v>
+        <v>28.35044495482392</v>
       </c>
       <c r="P4" t="n">
-        <v>339.2718252289166</v>
+        <v>339.0784289401309</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29168,28 +29230,28 @@
         <v>0.1377</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.287143108169222</v>
+        <v>-1.270726157769403</v>
       </c>
       <c r="J5" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K5" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1139031517251212</v>
+        <v>0.1115418037797615</v>
       </c>
       <c r="M5" t="n">
-        <v>20.24492232553925</v>
+        <v>20.25100161814226</v>
       </c>
       <c r="N5" t="n">
-        <v>743.1290426261849</v>
+        <v>743.659219633749</v>
       </c>
       <c r="O5" t="n">
-        <v>27.26039329551547</v>
+        <v>27.27011587129305</v>
       </c>
       <c r="P5" t="n">
-        <v>336.9787193138656</v>
+        <v>336.8185040642975</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29246,28 +29308,28 @@
         <v>0.0867</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.112283478472073</v>
+        <v>-1.102388176871221</v>
       </c>
       <c r="J6" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K6" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1091773432408754</v>
+        <v>0.1078216286252478</v>
       </c>
       <c r="M6" t="n">
-        <v>17.87488561558065</v>
+        <v>17.86351217281385</v>
       </c>
       <c r="N6" t="n">
-        <v>589.5684672534213</v>
+        <v>588.8463539716446</v>
       </c>
       <c r="O6" t="n">
-        <v>24.28103101710101</v>
+        <v>24.26615655540952</v>
       </c>
       <c r="P6" t="n">
-        <v>336.2406511661991</v>
+        <v>336.144386366283</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29321,7 +29383,7 @@
         <v>-1.093626737943783</v>
       </c>
       <c r="J7" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K7" t="n">
         <v>330</v>
@@ -29393,7 +29455,7 @@
         <v>-1.419164264653505</v>
       </c>
       <c r="J8" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K8" t="n">
         <v>332</v>
@@ -29465,7 +29527,7 @@
         <v>-1.270020675575201</v>
       </c>
       <c r="J9" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K9" t="n">
         <v>331</v>
@@ -29534,28 +29596,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-1.208806394429948</v>
+        <v>-1.196862369473788</v>
       </c>
       <c r="J10" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K10" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1015182394392042</v>
+        <v>0.1000236198125545</v>
       </c>
       <c r="M10" t="n">
-        <v>20.1289543407564</v>
+        <v>20.12149064318305</v>
       </c>
       <c r="N10" t="n">
-        <v>764.4901900229689</v>
+        <v>763.8395852318675</v>
       </c>
       <c r="O10" t="n">
-        <v>27.6494157266111</v>
+        <v>27.63764796852054</v>
       </c>
       <c r="P10" t="n">
-        <v>328.6844167406393</v>
+        <v>328.5690782365184</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29612,28 +29674,28 @@
         <v>0.0433</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.323019099908201</v>
+        <v>-1.311651353267178</v>
       </c>
       <c r="J11" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K11" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1216256347071947</v>
+        <v>0.1206951775185751</v>
       </c>
       <c r="M11" t="n">
-        <v>20.13519908279718</v>
+        <v>20.07831218982086</v>
       </c>
       <c r="N11" t="n">
-        <v>730.8085959169648</v>
+        <v>728.3990718441345</v>
       </c>
       <c r="O11" t="n">
-        <v>27.03347176958529</v>
+        <v>26.988869406556</v>
       </c>
       <c r="P11" t="n">
-        <v>324.760235041848</v>
+        <v>324.6492562734003</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29684,28 +29746,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.041324837448308</v>
+        <v>-1.021805497002378</v>
       </c>
       <c r="J12" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K12" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07116234594648563</v>
+        <v>0.06874884509734913</v>
       </c>
       <c r="M12" t="n">
-        <v>22.47162829434914</v>
+        <v>22.48966321034362</v>
       </c>
       <c r="N12" t="n">
-        <v>818.6387310148692</v>
+        <v>820.2245360714891</v>
       </c>
       <c r="O12" t="n">
-        <v>28.61186346631182</v>
+        <v>28.63956242807297</v>
       </c>
       <c r="P12" t="n">
-        <v>313.5113181346676</v>
+        <v>313.3208998727571</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29756,28 +29818,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-0.9672444183494365</v>
+        <v>-0.9507069299348228</v>
       </c>
       <c r="J13" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K13" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07227956390814916</v>
+        <v>0.07008051280727745</v>
       </c>
       <c r="M13" t="n">
-        <v>20.19486067687394</v>
+        <v>20.20274133247622</v>
       </c>
       <c r="N13" t="n">
-        <v>688.4497390606538</v>
+        <v>689.3605298341251</v>
       </c>
       <c r="O13" t="n">
-        <v>26.23832576710362</v>
+        <v>26.25567614505719</v>
       </c>
       <c r="P13" t="n">
-        <v>318.7180805896791</v>
+        <v>318.5546933611469</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29834,28 +29896,28 @@
         <v>0.0303</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.066522502981459</v>
+        <v>-1.049654916483834</v>
       </c>
       <c r="J14" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K14" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08000757978775863</v>
+        <v>0.07779759229248051</v>
       </c>
       <c r="M14" t="n">
-        <v>21.21084843713482</v>
+        <v>21.22404850136397</v>
       </c>
       <c r="N14" t="n">
-        <v>757.8467268492233</v>
+        <v>758.6750127038528</v>
       </c>
       <c r="O14" t="n">
-        <v>27.52901608937783</v>
+        <v>27.54405585065229</v>
       </c>
       <c r="P14" t="n">
-        <v>319.584903893977</v>
+        <v>319.4196992744099</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29912,28 +29974,28 @@
         <v>0.077</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.037579492510527</v>
+        <v>-1.019727201539999</v>
       </c>
       <c r="J15" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K15" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09646026646766748</v>
+        <v>0.09340086537149617</v>
       </c>
       <c r="M15" t="n">
-        <v>18.57386416127369</v>
+        <v>18.62257759214409</v>
       </c>
       <c r="N15" t="n">
-        <v>580.3616199678376</v>
+        <v>582.2564602566121</v>
       </c>
       <c r="O15" t="n">
-        <v>24.09069571365339</v>
+        <v>24.12999088803417</v>
       </c>
       <c r="P15" t="n">
-        <v>315.4721937959201</v>
+        <v>315.2951635415986</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29990,28 +30052,28 @@
         <v>0.0476</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7520846177239724</v>
+        <v>-0.7386102537473787</v>
       </c>
       <c r="J16" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K16" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06500520671343724</v>
+        <v>0.06297260840254437</v>
       </c>
       <c r="M16" t="n">
-        <v>16.86876072738011</v>
+        <v>16.88233588393435</v>
       </c>
       <c r="N16" t="n">
-        <v>490.9347298059895</v>
+        <v>491.1978308914481</v>
       </c>
       <c r="O16" t="n">
-        <v>22.15704695590073</v>
+        <v>22.16298334817423</v>
       </c>
       <c r="P16" t="n">
-        <v>308.2669748971805</v>
+        <v>308.1389267328887</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30068,28 +30130,28 @@
         <v>0.0435</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3994529349398976</v>
+        <v>-0.3923101181489873</v>
       </c>
       <c r="J17" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K17" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02486311246072903</v>
+        <v>0.02408959455481197</v>
       </c>
       <c r="M17" t="n">
-        <v>14.82227335186236</v>
+        <v>14.81853823716474</v>
       </c>
       <c r="N17" t="n">
-        <v>360.2776904292264</v>
+        <v>359.8022173637406</v>
       </c>
       <c r="O17" t="n">
-        <v>18.98098233572821</v>
+        <v>18.96845321484439</v>
       </c>
       <c r="P17" t="n">
-        <v>311.1135656663241</v>
+        <v>311.042650159333</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30127,7 +30189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R446"/>
+  <dimension ref="A1:R447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46236,7 +46298,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>-45.90652601709704,170.53976784630268</t>
+          <t>-45.90652601709705,170.53976784630268</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
@@ -52703,7 +52765,7 @@
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>-45.907099944185816,170.54070598592924</t>
+          <t>-45.90709994418582,170.54070598592924</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -63974,7 +64036,11 @@
           <t>-45.907035932060616,170.5443059852353</t>
         </is>
       </c>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>-45.90673836789713,170.54339867148406</t>
+        </is>
+      </c>
       <c r="L446" t="inlineStr"/>
       <c r="M446" t="inlineStr">
         <is>
@@ -64002,6 +64068,78 @@
         </is>
       </c>
       <c r="R446" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>-45.90722248742728,170.54968456957263</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>-45.90717357431077,170.54878879792764</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>-45.90707737401528,170.54789257848472</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>-45.90702839530339,170.54430645457143</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>-45.90698611774762,170.5433991380889</t>
+        </is>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>-45.90708306626157,170.54250468851478</t>
+        </is>
+      </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>-45.90708856346307,170.54160992660582</t>
+        </is>
+      </c>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>-45.90707412434728,170.54070602960283</t>
+        </is>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>-45.90710159597605,170.53980127294835</t>
+        </is>
+      </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>-45.90704825186428,170.53888300546134</t>
+        </is>
+      </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>-45.90715758661536,170.5379906624007</t>
+        </is>
+      </c>
+      <c r="R447" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0510/nzd0510.xlsx
+++ b/data/nzd0510/nzd0510.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R447"/>
+  <dimension ref="A1:R451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23667,9 +23667,15 @@
       <c r="F447" t="n">
         <v>326.2092307692308</v>
       </c>
-      <c r="G447" t="inlineStr"/>
-      <c r="H447" t="inlineStr"/>
-      <c r="I447" t="inlineStr"/>
+      <c r="G447" t="n">
+        <v>302.0038983050848</v>
+      </c>
+      <c r="H447" t="n">
+        <v>217.6420754716981</v>
+      </c>
+      <c r="I447" t="n">
+        <v>220.37</v>
+      </c>
       <c r="J447" t="n">
         <v>320.8165853658537</v>
       </c>
@@ -23697,6 +23703,200 @@
       <c r="R447" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="n">
+        <v>253.3083050847458</v>
+      </c>
+      <c r="H448" t="n">
+        <v>229.7896226415095</v>
+      </c>
+      <c r="I448" t="n">
+        <v>235.8236170212766</v>
+      </c>
+      <c r="J448" t="n">
+        <v>236.179756097561</v>
+      </c>
+      <c r="K448" t="n">
+        <v>238.2714285714286</v>
+      </c>
+      <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr"/>
+      <c r="N448" t="n">
+        <v>270.69</v>
+      </c>
+      <c r="O448" t="n">
+        <v>277.3718181818182</v>
+      </c>
+      <c r="P448" t="inlineStr"/>
+      <c r="Q448" t="n">
+        <v>304.7514285714286</v>
+      </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="n">
+        <v>251.2322033898305</v>
+      </c>
+      <c r="H449" t="n">
+        <v>223.1916981132076</v>
+      </c>
+      <c r="I449" t="n">
+        <v>229.9736170212766</v>
+      </c>
+      <c r="J449" t="n">
+        <v>225.5463414634146</v>
+      </c>
+      <c r="K449" t="n">
+        <v>231.5928571428572</v>
+      </c>
+      <c r="L449" t="inlineStr"/>
+      <c r="M449" t="n">
+        <v>297.7994117647058</v>
+      </c>
+      <c r="N449" t="n">
+        <v>303.3</v>
+      </c>
+      <c r="O449" t="n">
+        <v>289.4063636363636</v>
+      </c>
+      <c r="P449" t="n">
+        <v>290.33</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>291.8328571428572</v>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>237.43</v>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="n">
+        <v>315.4576923076923</v>
+      </c>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="n">
+        <v>235.6001886792453</v>
+      </c>
+      <c r="I450" t="n">
+        <v>245.4214893617021</v>
+      </c>
+      <c r="J450" t="n">
+        <v>240.1885365853659</v>
+      </c>
+      <c r="K450" t="n">
+        <v>246.9057142857143</v>
+      </c>
+      <c r="L450" t="inlineStr"/>
+      <c r="M450" t="inlineStr"/>
+      <c r="N450" t="n">
+        <v>306.51</v>
+      </c>
+      <c r="O450" t="n">
+        <v>290.6572727272728</v>
+      </c>
+      <c r="P450" t="n">
+        <v>301.81</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>287.4157142857143</v>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>244.27</v>
+      </c>
+      <c r="C451" t="n">
+        <v>319.72</v>
+      </c>
+      <c r="D451" t="n">
+        <v>332.7172727272728</v>
+      </c>
+      <c r="E451" t="n">
+        <v>334.46</v>
+      </c>
+      <c r="F451" t="n">
+        <v>324.4007692307692</v>
+      </c>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="n">
+        <v>259.4337735849056</v>
+      </c>
+      <c r="I451" t="n">
+        <v>256.9402127659574</v>
+      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="n">
+        <v>308.1257894736842</v>
+      </c>
+      <c r="M451" t="n">
+        <v>319.7570588235294</v>
+      </c>
+      <c r="N451" t="n">
+        <v>316.49</v>
+      </c>
+      <c r="O451" t="n">
+        <v>305.9372727272727</v>
+      </c>
+      <c r="P451" t="n">
+        <v>293.17</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>308.0571428571428</v>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23711,7 +23911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B511"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28829,6 +29029,56 @@
       </c>
       <c r="B511" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -28996,28 +29246,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.5920757779757396</v>
+        <v>-0.6204860261728389</v>
       </c>
       <c r="J2" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01385312732568189</v>
+        <v>0.01533545133964054</v>
       </c>
       <c r="M2" t="n">
-        <v>33.0660795134574</v>
+        <v>32.99001979186051</v>
       </c>
       <c r="N2" t="n">
-        <v>1434.159909776399</v>
+        <v>1428.299580549243</v>
       </c>
       <c r="O2" t="n">
-        <v>37.8703037983114</v>
+        <v>37.79285091851688</v>
       </c>
       <c r="P2" t="n">
-        <v>280.0738690954003</v>
+        <v>280.3592682603926</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29074,28 +29324,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.776444858067531</v>
+        <v>-1.753555440345144</v>
       </c>
       <c r="J3" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09998060200236469</v>
+        <v>0.09798834360376185</v>
       </c>
       <c r="M3" t="n">
-        <v>30.34360951182729</v>
+        <v>30.32162143861022</v>
       </c>
       <c r="N3" t="n">
-        <v>1684.181930420056</v>
+        <v>1683.432127198635</v>
       </c>
       <c r="O3" t="n">
-        <v>41.03878568403378</v>
+        <v>41.02964936723972</v>
       </c>
       <c r="P3" t="n">
-        <v>327.3483455457086</v>
+        <v>327.1285533354441</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29152,28 +29402,28 @@
         <v>0.075</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.533634520455949</v>
+        <v>-1.515468220835525</v>
       </c>
       <c r="J4" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K4" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1487360593119353</v>
+        <v>0.1459535095566726</v>
       </c>
       <c r="M4" t="n">
-        <v>20.91991811954092</v>
+        <v>20.92559744934583</v>
       </c>
       <c r="N4" t="n">
-        <v>803.7477291365012</v>
+        <v>804.6558912617959</v>
       </c>
       <c r="O4" t="n">
-        <v>28.35044495482392</v>
+        <v>28.36645715033508</v>
       </c>
       <c r="P4" t="n">
-        <v>339.0784289401309</v>
+        <v>338.9042156310834</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29230,28 +29480,28 @@
         <v>0.1377</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.270726157769403</v>
+        <v>-1.254311539860785</v>
       </c>
       <c r="J5" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K5" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1115418037797615</v>
+        <v>0.1091946138603607</v>
       </c>
       <c r="M5" t="n">
-        <v>20.25100161814226</v>
+        <v>20.25675816360686</v>
       </c>
       <c r="N5" t="n">
-        <v>743.659219633749</v>
+        <v>744.1892079988729</v>
       </c>
       <c r="O5" t="n">
-        <v>27.27011587129305</v>
+        <v>27.27983152438579</v>
       </c>
       <c r="P5" t="n">
-        <v>336.8185040642975</v>
+        <v>336.6575969732443</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29308,28 +29558,28 @@
         <v>0.0867</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.102388176871221</v>
+        <v>-1.089481309830941</v>
       </c>
       <c r="J6" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K6" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1078216286252478</v>
+        <v>0.1064709917350319</v>
       </c>
       <c r="M6" t="n">
-        <v>17.86351217281385</v>
+        <v>17.81233969748082</v>
       </c>
       <c r="N6" t="n">
-        <v>588.8463539716446</v>
+        <v>586.3761241976198</v>
       </c>
       <c r="O6" t="n">
-        <v>24.26615655540952</v>
+        <v>24.21520440131819</v>
       </c>
       <c r="P6" t="n">
-        <v>336.144386366283</v>
+        <v>336.0183332689819</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29380,28 +29630,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1.093626737943783</v>
+        <v>-1.151599035870323</v>
       </c>
       <c r="J7" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K7" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1208528871881501</v>
+        <v>0.1304610085681543</v>
       </c>
       <c r="M7" t="n">
-        <v>16.80155996045204</v>
+        <v>17.0297722721016</v>
       </c>
       <c r="N7" t="n">
-        <v>511.6773886477363</v>
+        <v>523.8247742054762</v>
       </c>
       <c r="O7" t="n">
-        <v>22.6202871035656</v>
+        <v>22.88721857730808</v>
       </c>
       <c r="P7" t="n">
-        <v>333.75795928773</v>
+        <v>334.3222695782059</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29452,28 +29702,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-1.419164264653505</v>
+        <v>-1.581006141915334</v>
       </c>
       <c r="J8" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K8" t="n">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L8" t="n">
-        <v>0.135500444906781</v>
+        <v>0.1563670494331401</v>
       </c>
       <c r="M8" t="n">
-        <v>20.03767712140888</v>
+        <v>20.91356737857026</v>
       </c>
       <c r="N8" t="n">
-        <v>771.1513127089873</v>
+        <v>819.6786753883396</v>
       </c>
       <c r="O8" t="n">
-        <v>27.76961131721125</v>
+        <v>28.6300310057174</v>
       </c>
       <c r="P8" t="n">
-        <v>333.0313789582784</v>
+        <v>334.5772293453097</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29524,28 +29774,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-1.270020675575201</v>
+        <v>-1.419253918385235</v>
       </c>
       <c r="J9" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K9" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1216008641894786</v>
+        <v>0.1418857486921092</v>
       </c>
       <c r="M9" t="n">
-        <v>19.56520978056743</v>
+        <v>20.23858550990051</v>
       </c>
       <c r="N9" t="n">
-        <v>690.2788050358334</v>
+        <v>730.6756608576803</v>
       </c>
       <c r="O9" t="n">
-        <v>26.27315750030501</v>
+        <v>27.031012945461</v>
       </c>
       <c r="P9" t="n">
-        <v>328.7088299107778</v>
+        <v>330.1556042067503</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29596,28 +29846,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-1.196862369473788</v>
+        <v>-1.292641439596217</v>
       </c>
       <c r="J10" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K10" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1000236198125545</v>
+        <v>0.1119122656730096</v>
       </c>
       <c r="M10" t="n">
-        <v>20.12149064318305</v>
+        <v>20.62330787753568</v>
       </c>
       <c r="N10" t="n">
-        <v>763.8395852318675</v>
+        <v>791.6058003610475</v>
       </c>
       <c r="O10" t="n">
-        <v>27.63764796852054</v>
+        <v>28.13549005013148</v>
       </c>
       <c r="P10" t="n">
-        <v>328.5690782365184</v>
+        <v>329.4958095499892</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29674,28 +29924,28 @@
         <v>0.0433</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.311651353267178</v>
+        <v>-1.390348548076696</v>
       </c>
       <c r="J11" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1206951775185751</v>
+        <v>0.131928743601697</v>
       </c>
       <c r="M11" t="n">
-        <v>20.07831218982086</v>
+        <v>20.47911401093432</v>
       </c>
       <c r="N11" t="n">
-        <v>728.3990718441345</v>
+        <v>744.8221899662522</v>
       </c>
       <c r="O11" t="n">
-        <v>26.988869406556</v>
+        <v>27.29143070574081</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6492562734003</v>
+        <v>325.4187718719531</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29746,28 +29996,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.021805497002378</v>
+        <v>-1.01063789251202</v>
       </c>
       <c r="J12" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K12" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06874884509734913</v>
+        <v>0.06760823378243708</v>
       </c>
       <c r="M12" t="n">
-        <v>22.48966321034362</v>
+        <v>22.47287844086062</v>
       </c>
       <c r="N12" t="n">
-        <v>820.2245360714891</v>
+        <v>819.1518069845712</v>
       </c>
       <c r="O12" t="n">
-        <v>28.63956242807297</v>
+        <v>28.62082820228253</v>
       </c>
       <c r="P12" t="n">
-        <v>313.3208998727571</v>
+        <v>313.2114656861368</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -29818,28 +30068,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-0.9507069299348228</v>
+        <v>-0.9354560639054372</v>
       </c>
       <c r="J13" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K13" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07008051280727745</v>
+        <v>0.06851047885772843</v>
       </c>
       <c r="M13" t="n">
-        <v>20.20274133247622</v>
+        <v>20.14854149252804</v>
       </c>
       <c r="N13" t="n">
-        <v>689.3605298341251</v>
+        <v>687.3459794814424</v>
       </c>
       <c r="O13" t="n">
-        <v>26.25567614505719</v>
+        <v>26.21728398368989</v>
       </c>
       <c r="P13" t="n">
-        <v>318.5546933611469</v>
+        <v>318.4033769100766</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29896,28 +30146,28 @@
         <v>0.0303</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.049654916483834</v>
+        <v>-1.03552341773891</v>
       </c>
       <c r="J14" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K14" t="n">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07779759229248051</v>
+        <v>0.07702013442191324</v>
       </c>
       <c r="M14" t="n">
-        <v>21.22404850136397</v>
+        <v>21.16867053425056</v>
       </c>
       <c r="N14" t="n">
-        <v>758.6750127038528</v>
+        <v>753.9252224748906</v>
       </c>
       <c r="O14" t="n">
-        <v>27.54405585065229</v>
+        <v>27.45769878330831</v>
       </c>
       <c r="P14" t="n">
-        <v>319.4196992744099</v>
+        <v>319.280568892952</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29974,28 +30224,28 @@
         <v>0.077</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.019727201539999</v>
+        <v>-1.015949799970763</v>
       </c>
       <c r="J15" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K15" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09340086537149617</v>
+        <v>0.09432787314206503</v>
       </c>
       <c r="M15" t="n">
-        <v>18.62257759214409</v>
+        <v>18.50043202291967</v>
       </c>
       <c r="N15" t="n">
-        <v>582.2564602566121</v>
+        <v>576.9445912152557</v>
       </c>
       <c r="O15" t="n">
-        <v>24.12999088803417</v>
+        <v>24.01967092229316</v>
       </c>
       <c r="P15" t="n">
-        <v>315.2951635415986</v>
+        <v>315.2573544842219</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30052,28 +30302,28 @@
         <v>0.0476</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7386102537473787</v>
+        <v>-0.7286419434102374</v>
       </c>
       <c r="J16" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K16" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06297260840254437</v>
+        <v>0.06234434024126123</v>
       </c>
       <c r="M16" t="n">
-        <v>16.88233588393435</v>
+        <v>16.77164510305088</v>
       </c>
       <c r="N16" t="n">
-        <v>491.1978308914481</v>
+        <v>487.0871887842618</v>
       </c>
       <c r="O16" t="n">
-        <v>22.16298334817423</v>
+        <v>22.07005185277692</v>
       </c>
       <c r="P16" t="n">
-        <v>308.1389267328887</v>
+        <v>308.0439132742342</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30130,28 +30380,28 @@
         <v>0.0435</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3923101181489873</v>
+        <v>-0.3980239501478377</v>
       </c>
       <c r="J17" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K17" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02408959455481197</v>
+        <v>0.02521719119412302</v>
       </c>
       <c r="M17" t="n">
-        <v>14.81853823716474</v>
+        <v>14.74663091372958</v>
       </c>
       <c r="N17" t="n">
-        <v>359.8022173637406</v>
+        <v>356.6490921901823</v>
       </c>
       <c r="O17" t="n">
-        <v>18.96845321484439</v>
+        <v>18.8851553393183</v>
       </c>
       <c r="P17" t="n">
-        <v>311.042650159333</v>
+        <v>311.0994494966036</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30189,7 +30439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R447"/>
+  <dimension ref="A1:R451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64096,9 +64346,21 @@
           <t>-45.90707737401528,170.54789257848472</t>
         </is>
       </c>
-      <c r="G447" t="inlineStr"/>
-      <c r="H447" t="inlineStr"/>
-      <c r="I447" t="inlineStr"/>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>-45.90687099881858,170.54699073550086</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>-45.90612323800557,170.54609593268398</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>-45.90615947574128,170.5452530630611</t>
+        </is>
+      </c>
       <c r="J447" t="inlineStr">
         <is>
           <t>-45.90702839530339,170.54430645457143</t>
@@ -64142,6 +64404,282 @@
       <c r="R447" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>-45.906432911647286,170.54699267557157</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>-45.906232522702105,170.546095447558</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>-45.90629839634302,170.54524522999466</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>-45.90626768037988,170.5443538256595</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>-45.90629213025477,170.54339783094827</t>
+        </is>
+      </c>
+      <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr"/>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>-45.90658984491661,170.54070684864962</t>
+        </is>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>-45.90668052302035,170.539776819164</t>
+        </is>
+      </c>
+      <c r="P448" t="inlineStr"/>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>-45.90706771208263,170.53797433605376</t>
+        </is>
+      </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>-45.90641423411421,170.54699275828122</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>-45.90617316486083,170.54609571105487</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>-45.90624580765061,170.5452481952251</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>-45.9061721073522,170.54435977704136</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>-45.90623204670127,170.5433977177642</t>
+        </is>
+      </c>
+      <c r="L449" t="inlineStr"/>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>-45.90683858199911,170.54162197841111</t>
+        </is>
+      </c>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>-45.90688321947497,170.54070635249695</t>
+        </is>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>-45.90678870249743,170.5397831016572</t>
+        </is>
+      </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>-45.90684593722255,170.53885679986726</t>
+        </is>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>-45.90695241410764,170.5379533914273</t>
+        </is>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>-45.90644416506245,170.55164934587944</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>-45.90698069470208,170.54789688755164</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>-45.906284797118424,170.54609521550267</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>-45.90638467660767,170.5452403650373</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>-45.90630371125951,170.54435158199087</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>-45.90636980832824,170.5433979772728</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr"/>
+      <c r="M450" t="inlineStr"/>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>-45.906912098110595,170.54070630365388</t>
+        </is>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>-45.90679994701768,170.5397837546805</t>
+        </is>
+      </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>-45.90694879692633,170.53887012315192</t>
+        </is>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>-45.90691299120071,170.5379462300179</t>
+        </is>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>-45.90650513189537,170.5516373839035</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>-45.90710553260097,170.55060508218625</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>-45.90719011658749,170.54968787161692</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>-45.907175120470846,170.54878865456226</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>-45.90706111208043,170.54789330329245</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>-45.906499214561414,170.5460942636401</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>-45.90648822439901,170.54523452641416</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>-45.906942263086385,170.5425071572446</t>
+        </is>
+      </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>-45.90703601150444,170.54161246019046</t>
+        </is>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>-45.90700188277752,170.54070615179478</t>
+        </is>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>-45.90693730013864,170.53979173144987</t>
+        </is>
+      </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>-45.90687138335157,170.53886009586762</t>
+        </is>
+      </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>-45.9070972155116,170.5379796955559</t>
+        </is>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0510/nzd0510.xlsx
+++ b/data/nzd0510/nzd0510.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R451"/>
+  <dimension ref="A1:R455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23667,9 +23667,7 @@
       <c r="F447" t="n">
         <v>326.2092307692308</v>
       </c>
-      <c r="G447" t="n">
-        <v>302.0038983050848</v>
-      </c>
+      <c r="G447" t="inlineStr"/>
       <c r="H447" t="n">
         <v>217.6420754716981</v>
       </c>
@@ -23717,18 +23715,14 @@
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr"/>
-      <c r="G448" t="n">
-        <v>253.3083050847458</v>
-      </c>
+      <c r="G448" t="inlineStr"/>
       <c r="H448" t="n">
         <v>229.7896226415095</v>
       </c>
       <c r="I448" t="n">
         <v>235.8236170212766</v>
       </c>
-      <c r="J448" t="n">
-        <v>236.179756097561</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="n">
         <v>238.2714285714286</v>
       </c>
@@ -23761,18 +23755,14 @@
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr"/>
       <c r="F449" t="inlineStr"/>
-      <c r="G449" t="n">
-        <v>251.2322033898305</v>
-      </c>
+      <c r="G449" t="inlineStr"/>
       <c r="H449" t="n">
         <v>223.1916981132076</v>
       </c>
       <c r="I449" t="n">
         <v>229.9736170212766</v>
       </c>
-      <c r="J449" t="n">
-        <v>225.5463414634146</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="n">
         <v>231.5928571428572</v>
       </c>
@@ -23820,9 +23810,7 @@
       <c r="I450" t="n">
         <v>245.4214893617021</v>
       </c>
-      <c r="J450" t="n">
-        <v>240.1885365853659</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="n">
         <v>246.9057142857143</v>
       </c>
@@ -23875,7 +23863,9 @@
         <v>256.9402127659574</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>300.2671428571429</v>
+      </c>
       <c r="L451" t="n">
         <v>308.1257894736842</v>
       </c>
@@ -23897,6 +23887,246 @@
       <c r="R451" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>253.79</v>
+      </c>
+      <c r="C452" t="n">
+        <v>324.71</v>
+      </c>
+      <c r="D452" t="n">
+        <v>325.6790909090909</v>
+      </c>
+      <c r="E452" t="n">
+        <v>346.15</v>
+      </c>
+      <c r="F452" t="n">
+        <v>351.6730769230769</v>
+      </c>
+      <c r="G452" t="n">
+        <v>341.1366101694915</v>
+      </c>
+      <c r="H452" t="n">
+        <v>339.2950943396227</v>
+      </c>
+      <c r="I452" t="n">
+        <v>330.6208510638298</v>
+      </c>
+      <c r="J452" t="n">
+        <v>329.0690243902439</v>
+      </c>
+      <c r="K452" t="n">
+        <v>305.1885714285714</v>
+      </c>
+      <c r="L452" t="n">
+        <v>313.7731578947368</v>
+      </c>
+      <c r="M452" t="n">
+        <v>330.9082352941176</v>
+      </c>
+      <c r="N452" t="n">
+        <v>332.15</v>
+      </c>
+      <c r="O452" t="n">
+        <v>334.7490909090909</v>
+      </c>
+      <c r="P452" t="n">
+        <v>313.95</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>300.9885714285714</v>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>278.7</v>
+      </c>
+      <c r="C453" t="n">
+        <v>299.26</v>
+      </c>
+      <c r="D453" t="n">
+        <v>317.8227272727273</v>
+      </c>
+      <c r="E453" t="n">
+        <v>317.6366666666667</v>
+      </c>
+      <c r="F453" t="n">
+        <v>321.7161538461539</v>
+      </c>
+      <c r="G453" t="n">
+        <v>314.2640677966102</v>
+      </c>
+      <c r="H453" t="n">
+        <v>312.5126415094339</v>
+      </c>
+      <c r="I453" t="n">
+        <v>311.1710638297872</v>
+      </c>
+      <c r="J453" t="n">
+        <v>307.2290243902439</v>
+      </c>
+      <c r="K453" t="n">
+        <v>314.5114285714285</v>
+      </c>
+      <c r="L453" t="n">
+        <v>320.0452631578947</v>
+      </c>
+      <c r="M453" t="n">
+        <v>325.86</v>
+      </c>
+      <c r="N453" t="n">
+        <v>324.11</v>
+      </c>
+      <c r="O453" t="n">
+        <v>293.4927272727273</v>
+      </c>
+      <c r="P453" t="n">
+        <v>290.49</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>299.4014285714285</v>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>274.5766666666667</v>
+      </c>
+      <c r="C454" t="n">
+        <v>310.4466666666667</v>
+      </c>
+      <c r="D454" t="n">
+        <v>311.0454545454546</v>
+      </c>
+      <c r="E454" t="n">
+        <v>324.7077777777778</v>
+      </c>
+      <c r="F454" t="n">
+        <v>329.8453846153847</v>
+      </c>
+      <c r="G454" t="n">
+        <v>328.8176271186441</v>
+      </c>
+      <c r="H454" t="n">
+        <v>325.3277358490566</v>
+      </c>
+      <c r="I454" t="n">
+        <v>314.1953191489362</v>
+      </c>
+      <c r="J454" t="n">
+        <v>318.7512195121951</v>
+      </c>
+      <c r="K454" t="n">
+        <v>302.1971428571428</v>
+      </c>
+      <c r="L454" t="n">
+        <v>308.4215789473685</v>
+      </c>
+      <c r="M454" t="n">
+        <v>314.5323529411764</v>
+      </c>
+      <c r="N454" t="n">
+        <v>305.78</v>
+      </c>
+      <c r="O454" t="n">
+        <v>292.8054545454545</v>
+      </c>
+      <c r="P454" t="n">
+        <v>287.1</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>277.2271428571428</v>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>293.7666666666667</v>
+      </c>
+      <c r="C455" t="n">
+        <v>317.2866666666667</v>
+      </c>
+      <c r="D455" t="n">
+        <v>320.9336363636364</v>
+      </c>
+      <c r="E455" t="n">
+        <v>320.8244444444445</v>
+      </c>
+      <c r="F455" t="n">
+        <v>328.34</v>
+      </c>
+      <c r="G455" t="n">
+        <v>325.7433898305085</v>
+      </c>
+      <c r="H455" t="n">
+        <v>316.3028301886793</v>
+      </c>
+      <c r="I455" t="n">
+        <v>309.2559574468085</v>
+      </c>
+      <c r="J455" t="n">
+        <v>309.8107317073171</v>
+      </c>
+      <c r="K455" t="n">
+        <v>310.9242857142857</v>
+      </c>
+      <c r="L455" t="n">
+        <v>312.4252631578947</v>
+      </c>
+      <c r="M455" t="n">
+        <v>311.1582352941176</v>
+      </c>
+      <c r="N455" t="n">
+        <v>303.14</v>
+      </c>
+      <c r="O455" t="n">
+        <v>286.5136363636364</v>
+      </c>
+      <c r="P455" t="n">
+        <v>285.27</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>291.1842857142857</v>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -23911,7 +24141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B516"/>
+  <dimension ref="A1:B520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29079,6 +29309,46 @@
       </c>
       <c r="B516" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -29246,28 +29516,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.6204860261728389</v>
+        <v>-0.5948148149319245</v>
       </c>
       <c r="J2" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01533545133964054</v>
+        <v>0.01440704313525809</v>
       </c>
       <c r="M2" t="n">
-        <v>32.99001979186051</v>
+        <v>32.77428089561817</v>
       </c>
       <c r="N2" t="n">
-        <v>1428.299580549243</v>
+        <v>1413.434702997675</v>
       </c>
       <c r="O2" t="n">
-        <v>37.79285091851688</v>
+        <v>37.59567399312952</v>
       </c>
       <c r="P2" t="n">
-        <v>280.3592682603926</v>
+        <v>280.0985488933074</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29324,28 +29594,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.753555440345144</v>
+        <v>-1.680386366230077</v>
       </c>
       <c r="J3" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K3" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09798834360376185</v>
+        <v>0.09216805151983642</v>
       </c>
       <c r="M3" t="n">
-        <v>30.32162143861022</v>
+        <v>30.1732301078074</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.432127198635</v>
+        <v>1675.03230456357</v>
       </c>
       <c r="O3" t="n">
-        <v>41.02964936723972</v>
+        <v>40.92715852051752</v>
       </c>
       <c r="P3" t="n">
-        <v>327.1285533354441</v>
+        <v>326.4206059202418</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29402,28 +29672,28 @@
         <v>0.075</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.515468220835525</v>
+        <v>-1.474083876299359</v>
       </c>
       <c r="J4" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K4" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1459535095566726</v>
+        <v>0.1412922669169492</v>
       </c>
       <c r="M4" t="n">
-        <v>20.92559744934583</v>
+        <v>20.83129444583213</v>
       </c>
       <c r="N4" t="n">
-        <v>804.6558912617959</v>
+        <v>799.682808901343</v>
       </c>
       <c r="O4" t="n">
-        <v>28.36645715033508</v>
+        <v>28.27866349213384</v>
       </c>
       <c r="P4" t="n">
-        <v>338.9042156310834</v>
+        <v>338.5043091128073</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29480,28 +29750,28 @@
         <v>0.1377</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.254311539860785</v>
+        <v>-1.205242464102331</v>
       </c>
       <c r="J5" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K5" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1091946138603607</v>
+        <v>0.1028412553853062</v>
       </c>
       <c r="M5" t="n">
-        <v>20.25675816360686</v>
+        <v>20.21232928760432</v>
       </c>
       <c r="N5" t="n">
-        <v>744.1892079988729</v>
+        <v>743.0899295141606</v>
       </c>
       <c r="O5" t="n">
-        <v>27.27983152438579</v>
+        <v>27.25967588791475</v>
       </c>
       <c r="P5" t="n">
-        <v>336.6575969732443</v>
+        <v>336.1731880972063</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29558,28 +29828,28 @@
         <v>0.0867</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.089481309830941</v>
+        <v>-1.037541832736659</v>
       </c>
       <c r="J6" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K6" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1064709917350319</v>
+        <v>0.09818248603048629</v>
       </c>
       <c r="M6" t="n">
-        <v>17.81233969748082</v>
+        <v>17.81975309176876</v>
       </c>
       <c r="N6" t="n">
-        <v>586.3761241976198</v>
+        <v>588.1879773034016</v>
       </c>
       <c r="O6" t="n">
-        <v>24.21520440131819</v>
+        <v>24.25258702290132</v>
       </c>
       <c r="P6" t="n">
-        <v>336.0183332689819</v>
+        <v>335.5069409491181</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29630,28 +29900,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1.151599035870323</v>
+        <v>-1.046399688337047</v>
       </c>
       <c r="J7" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K7" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1304610085681543</v>
+        <v>0.1127458347619661</v>
       </c>
       <c r="M7" t="n">
-        <v>17.0297722721016</v>
+        <v>16.82085496353261</v>
       </c>
       <c r="N7" t="n">
-        <v>523.8247742054762</v>
+        <v>512.3425693760283</v>
       </c>
       <c r="O7" t="n">
-        <v>22.88721857730808</v>
+        <v>22.63498551746893</v>
       </c>
       <c r="P7" t="n">
-        <v>334.3222695782059</v>
+        <v>333.2934149196006</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -29702,28 +29972,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-1.581006141915334</v>
+        <v>-1.520638975295571</v>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K8" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1563670494331401</v>
+        <v>0.1473460575966173</v>
       </c>
       <c r="M8" t="n">
-        <v>20.91356737857026</v>
+        <v>20.91723274706609</v>
       </c>
       <c r="N8" t="n">
-        <v>819.6786753883396</v>
+        <v>821.47185366417</v>
       </c>
       <c r="O8" t="n">
-        <v>28.6300310057174</v>
+        <v>28.66133028427274</v>
       </c>
       <c r="P8" t="n">
-        <v>334.5772293453097</v>
+        <v>333.9943252014912</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -29774,28 +30044,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-1.419253918385235</v>
+        <v>-1.372569391375823</v>
       </c>
       <c r="J9" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K9" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1418857486921092</v>
+        <v>0.1353345697155699</v>
       </c>
       <c r="M9" t="n">
-        <v>20.23858550990051</v>
+        <v>20.22971640633418</v>
       </c>
       <c r="N9" t="n">
-        <v>730.6756608576803</v>
+        <v>728.9856104431188</v>
       </c>
       <c r="O9" t="n">
-        <v>27.031012945461</v>
+        <v>26.99973352540945</v>
       </c>
       <c r="P9" t="n">
-        <v>330.1556042067503</v>
+        <v>329.6981283151771</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -29846,28 +30116,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-1.292641439596217</v>
+        <v>-1.158820105540091</v>
       </c>
       <c r="J10" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K10" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1119122656730096</v>
+        <v>0.09570734302156292</v>
       </c>
       <c r="M10" t="n">
-        <v>20.62330787753568</v>
+        <v>20.05510823941031</v>
       </c>
       <c r="N10" t="n">
-        <v>791.6058003610475</v>
+        <v>759.8522228753826</v>
       </c>
       <c r="O10" t="n">
-        <v>28.13549005013148</v>
+        <v>27.5654171540244</v>
       </c>
       <c r="P10" t="n">
-        <v>329.4958095499892</v>
+        <v>328.1972549555903</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -29924,28 +30194,28 @@
         <v>0.0433</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.390348548076696</v>
+        <v>-1.347478391785284</v>
       </c>
       <c r="J11" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K11" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L11" t="n">
-        <v>0.131928743601697</v>
+        <v>0.1271821547235167</v>
       </c>
       <c r="M11" t="n">
-        <v>20.47911401093432</v>
+        <v>20.35632266589875</v>
       </c>
       <c r="N11" t="n">
-        <v>744.8221899662522</v>
+        <v>738.8633383658565</v>
       </c>
       <c r="O11" t="n">
-        <v>27.29143070574081</v>
+        <v>27.18204073217933</v>
       </c>
       <c r="P11" t="n">
-        <v>325.4187718719531</v>
+        <v>324.9955731555168</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -29996,28 +30266,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-1.01063789251202</v>
+        <v>-0.9555286978072748</v>
       </c>
       <c r="J12" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K12" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06760823378243708</v>
+        <v>0.06158784135635387</v>
       </c>
       <c r="M12" t="n">
-        <v>22.47287844086062</v>
+        <v>22.45208524609791</v>
       </c>
       <c r="N12" t="n">
-        <v>819.1518069845712</v>
+        <v>817.9055485051585</v>
       </c>
       <c r="O12" t="n">
-        <v>28.62082820228253</v>
+        <v>28.59904803494617</v>
       </c>
       <c r="P12" t="n">
-        <v>313.2114656861368</v>
+        <v>312.6674007564765</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30068,28 +30338,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-0.9354560639054372</v>
+        <v>-0.881803763846237</v>
       </c>
       <c r="J13" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K13" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06851047885772843</v>
+        <v>0.06187872655067728</v>
       </c>
       <c r="M13" t="n">
-        <v>20.14854149252804</v>
+        <v>20.14000241806961</v>
       </c>
       <c r="N13" t="n">
-        <v>687.3459794814424</v>
+        <v>688.0239272295353</v>
       </c>
       <c r="O13" t="n">
-        <v>26.21728398368989</v>
+        <v>26.23021020177946</v>
       </c>
       <c r="P13" t="n">
-        <v>318.4033769100766</v>
+        <v>317.8670055234048</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30146,28 +30416,28 @@
         <v>0.0303</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.03552341773891</v>
+        <v>-0.9878670302013663</v>
       </c>
       <c r="J14" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K14" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07702013442191324</v>
+        <v>0.07128226945115701</v>
       </c>
       <c r="M14" t="n">
-        <v>21.16867053425056</v>
+        <v>21.14301191754398</v>
       </c>
       <c r="N14" t="n">
-        <v>753.9252224748906</v>
+        <v>753.3680058734423</v>
       </c>
       <c r="O14" t="n">
-        <v>27.45769878330831</v>
+        <v>27.44755008873182</v>
       </c>
       <c r="P14" t="n">
-        <v>319.280568892952</v>
+        <v>318.8082661607964</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30224,28 +30494,28 @@
         <v>0.077</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.015949799970763</v>
+        <v>-0.9907719036054419</v>
       </c>
       <c r="J15" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K15" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09432787314206503</v>
+        <v>0.09094908609806107</v>
       </c>
       <c r="M15" t="n">
-        <v>18.50043202291967</v>
+        <v>18.45006122637539</v>
       </c>
       <c r="N15" t="n">
-        <v>576.9445912152557</v>
+        <v>576.451330192258</v>
       </c>
       <c r="O15" t="n">
-        <v>24.01967092229316</v>
+        <v>24.00940087116415</v>
       </c>
       <c r="P15" t="n">
-        <v>315.2573544842219</v>
+        <v>315.0049302681088</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30302,28 +30572,28 @@
         <v>0.0476</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7286419434102374</v>
+        <v>-0.7176691263283747</v>
       </c>
       <c r="J16" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K16" t="n">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06234434024126123</v>
+        <v>0.06169399251125862</v>
       </c>
       <c r="M16" t="n">
-        <v>16.77164510305088</v>
+        <v>16.65352402853653</v>
       </c>
       <c r="N16" t="n">
-        <v>487.0871887842618</v>
+        <v>482.9669164794411</v>
       </c>
       <c r="O16" t="n">
-        <v>22.07005185277692</v>
+        <v>21.97650828679208</v>
       </c>
       <c r="P16" t="n">
-        <v>308.0439132742342</v>
+        <v>307.9385643732931</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30380,28 +30650,28 @@
         <v>0.0435</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3980239501478377</v>
+        <v>-0.4147519554769086</v>
       </c>
       <c r="J17" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K17" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02521719119412302</v>
+        <v>0.02773435029727445</v>
       </c>
       <c r="M17" t="n">
-        <v>14.74663091372958</v>
+        <v>14.68102130232471</v>
       </c>
       <c r="N17" t="n">
-        <v>356.6490921901823</v>
+        <v>354.4292222222105</v>
       </c>
       <c r="O17" t="n">
-        <v>18.8851553393183</v>
+        <v>18.82629071862565</v>
       </c>
       <c r="P17" t="n">
-        <v>311.0994494966036</v>
+        <v>311.2678091351081</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -30439,7 +30709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R451"/>
+  <dimension ref="A1:R455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64346,11 +64616,7 @@
           <t>-45.90707737401528,170.54789257848472</t>
         </is>
       </c>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>-45.90687099881858,170.54699073550086</t>
-        </is>
-      </c>
+      <c r="G447" t="inlineStr"/>
       <c r="H447" t="inlineStr">
         <is>
           <t>-45.90612323800557,170.54609593268398</t>
@@ -64418,11 +64684,7 @@
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>-45.906432911647286,170.54699267557157</t>
-        </is>
-      </c>
+      <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
           <t>-45.906232522702105,170.546095447558</t>
@@ -64433,11 +64695,7 @@
           <t>-45.90629839634302,170.54524522999466</t>
         </is>
       </c>
-      <c r="J448" t="inlineStr">
-        <is>
-          <t>-45.90626768037988,170.5443538256595</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>-45.90629213025477,170.54339783094827</t>
@@ -64478,11 +64736,7 @@
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr"/>
       <c r="F449" t="inlineStr"/>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>-45.90641423411421,170.54699275828122</t>
-        </is>
-      </c>
+      <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr">
         <is>
           <t>-45.90617316486083,170.54609571105487</t>
@@ -64493,11 +64747,7 @@
           <t>-45.90624580765061,170.5452481952251</t>
         </is>
       </c>
-      <c r="J449" t="inlineStr">
-        <is>
-          <t>-45.9061721073522,170.54435977704136</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>-45.90623204670127,170.5433977177642</t>
@@ -64565,11 +64815,7 @@
           <t>-45.90638467660767,170.5452403650373</t>
         </is>
       </c>
-      <c r="J450" t="inlineStr">
-        <is>
-          <t>-45.90630371125951,170.54435158199087</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>-45.90636980832824,170.5433979772728</t>
@@ -64646,7 +64892,11 @@
         </is>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>-45.90684987268138,170.54339888149403</t>
+        </is>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>-45.906942263086385,170.5425071572446</t>
@@ -64680,6 +64930,374 @@
       <c r="R451" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>-45.906589986313854,170.55162073502342</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>-45.907150182180835,170.5505984009981</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>-45.907126957553785,170.54969431425152</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-45.907280069824985,170.5487789232666</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>-45.907306348415794,170.54788237284217</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>-45.90722305404182,170.54698917629716</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>-45.90721768217578,170.54609107384607</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>-45.90715057789291,170.5451971783888</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>-45.90710256813038,170.54430183560314</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>-45.9068941481513,170.54339896488088</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>-45.9069930656716,170.54250626651603</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>-45.90713627594434,170.54160762633143</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>-45.90714276733244,170.54070591349378</t>
+        </is>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>-45.90719629182922,170.5398067724368</t>
+        </is>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>-45.907057570164675,170.53888421245446</t>
+        </is>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>-45.90703412866318,170.53796823539935</t>
+        </is>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>-45.906812016078234,170.5515771713545</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-45.90692246036608,170.55063247626916</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-45.90705645634206,170.54970150581542</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-45.90702408556614,170.5488026590028</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-45.90703697164959,170.54789437925004</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>-45.90698129674036,170.54699024701873</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>-45.90697673544387,170.54609214363384</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>-45.90697573367181,170.54520703742185</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>-45.906906270458805,170.54431405962228</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>-45.90697802092742,170.5433991228402</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>-45.907049488262665,170.54250527724693</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>-45.90709088535416,170.54160981466487</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>-45.90707043579891,170.5407060358419</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>-45.90682543514166,170.53978523489894</t>
+        </is>
+      </c>
+      <c r="P453" t="inlineStr">
+        <is>
+          <t>-45.90684737080729,170.53885698555735</t>
+        </is>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>-45.90701996344704,170.53796566219435</t>
+        </is>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>-45.90677526366256,170.55158438244194</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>-45.90702255655899,170.55061749836327</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>-45.90699563864425,170.54970770958266</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-45.90708756790853,170.54879677272788</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-45.90711007081054,170.5478911211599</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>-45.90711222701155,170.5469896671468</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>-45.90709202567331,170.54609163175928</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>-45.907002920271246,170.54520550444235</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>-45.907009831818655,170.5443076105737</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>-45.906867235862805,170.54339891419542</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>-45.90694492394874,170.5425071105914</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>-45.90698903419951,170.54161472500942</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>-45.90690553069503,170.54070631476156</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>-45.90681925719305,170.53978487611556</t>
+        </is>
+      </c>
+      <c r="P454" t="inlineStr">
+        <is>
+          <t>-45.90681699673056,170.53885305125021</t>
+        </is>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>-45.906822058413496,170.53792971156196</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>-45.90694630945715,170.55155082193997</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-45.907083759592425,170.55060834020946</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-45.907084372929454,170.5496986581518</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-45.90705270449154,170.54880000537148</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-45.90709653418515,170.54789172449944</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>-45.90708456981034,170.54698978963796</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>-45.90701083364975,170.54609199224322</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>-45.90695851778728,170.54520800817838</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>-45.906929474815286,170.54431261462645</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>-45.90694574931541,170.54339906206297</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>-45.90698094028294,170.5425064791124</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>-45.90695869623248,170.54161618762774</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>-45.90688178004141,170.54070635493147</t>
+        </is>
+      </c>
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>-45.90676269954427,170.53978159154144</t>
+        </is>
+      </c>
+      <c r="P455" t="inlineStr">
+        <is>
+          <t>-45.906800600104994,170.53885092742217</t>
+        </is>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>-45.90694662562134,170.5379523399132</t>
+        </is>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0510/nzd0510.xlsx
+++ b/data/nzd0510/nzd0510.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R455"/>
+  <dimension ref="A1:R456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24130,6 +24130,62 @@
         </is>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="n">
+        <v>292.34</v>
+      </c>
+      <c r="D456" t="n">
+        <v>307.4290909090909</v>
+      </c>
+      <c r="E456" t="n">
+        <v>316.0333333333333</v>
+      </c>
+      <c r="F456" t="n">
+        <v>309.6569230769231</v>
+      </c>
+      <c r="G456" t="n">
+        <v>309.4430508474576</v>
+      </c>
+      <c r="H456" t="n">
+        <v>310.4879245283019</v>
+      </c>
+      <c r="I456" t="n">
+        <v>301.6234042553191</v>
+      </c>
+      <c r="J456" t="n">
+        <v>312.4465853658537</v>
+      </c>
+      <c r="K456" t="n">
+        <v>311.8957142857143</v>
+      </c>
+      <c r="L456" t="n">
+        <v>310.8052631578948</v>
+      </c>
+      <c r="M456" t="n">
+        <v>311.5523529411765</v>
+      </c>
+      <c r="N456" t="n">
+        <v>305.59</v>
+      </c>
+      <c r="O456" t="n">
+        <v>288.0790909090909</v>
+      </c>
+      <c r="P456" t="n">
+        <v>283.07</v>
+      </c>
+      <c r="Q456" t="inlineStr"/>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24141,7 +24197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B520"/>
+  <dimension ref="A1:B521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29349,6 +29405,16 @@
       </c>
       <c r="B520" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -30709,7 +30775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R455"/>
+  <dimension ref="A1:R456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65301,6 +65367,90 @@
         </is>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-45.90686054150306,170.55064174147472</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-45.90696318622231,170.54971101991617</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-45.9070096913139,170.54880399367912</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>-45.90692853338618,170.5478992124101</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>-45.90693792473415,170.5469904391039</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>-45.906958520198486,170.5460922245062</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>-45.90688990480741,170.54521187706803</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>-45.90695316583834,170.54431113932296</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>-45.90695448874043,170.54339907852204</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>-45.90696636709029,170.5425067346263</t>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>-45.906962239893225,170.54161601678507</t>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>-45.90690382136768,170.54070631765256</t>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>-45.90677677153842,170.5397824087693</t>
+        </is>
+      </c>
+      <c r="P456" t="inlineStr">
+        <is>
+          <t>-45.906780888314636,170.5388483741877</t>
+        </is>
+      </c>
+      <c r="Q456" t="inlineStr"/>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0510/nzd0510.xlsx
+++ b/data/nzd0510/nzd0510.xlsx
@@ -29585,7 +29585,7 @@
         <v>-0.5948148149319245</v>
       </c>
       <c r="J2" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K2" t="n">
         <v>298</v>
@@ -29660,28 +29660,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.680386366230077</v>
+        <v>-1.674675450605919</v>
       </c>
       <c r="J3" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K3" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09216805151983642</v>
+        <v>0.09211238639585995</v>
       </c>
       <c r="M3" t="n">
-        <v>30.1732301078074</v>
+        <v>30.09466794796024</v>
       </c>
       <c r="N3" t="n">
-        <v>1675.03230456357</v>
+        <v>1669.904207597949</v>
       </c>
       <c r="O3" t="n">
-        <v>40.92715852051752</v>
+        <v>40.86446142552168</v>
       </c>
       <c r="P3" t="n">
-        <v>326.4206059202418</v>
+        <v>326.3650648477351</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29738,28 +29738,28 @@
         <v>0.075</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.474083876299359</v>
+        <v>-1.470118543501739</v>
       </c>
       <c r="J4" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K4" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1412922669169492</v>
+        <v>0.1413148514165603</v>
       </c>
       <c r="M4" t="n">
-        <v>20.83129444583213</v>
+        <v>20.7836514737929</v>
       </c>
       <c r="N4" t="n">
-        <v>799.682808901343</v>
+        <v>797.4460709726112</v>
       </c>
       <c r="O4" t="n">
-        <v>28.27866349213384</v>
+        <v>28.23908764412567</v>
       </c>
       <c r="P4" t="n">
-        <v>338.5043091128073</v>
+        <v>338.4657864750814</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29816,28 +29816,28 @@
         <v>0.1377</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.205242464102331</v>
+        <v>-1.19926605822409</v>
       </c>
       <c r="J5" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K5" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1028412553853062</v>
+        <v>0.1024023073834418</v>
       </c>
       <c r="M5" t="n">
-        <v>20.21232928760432</v>
+        <v>20.17702296635172</v>
       </c>
       <c r="N5" t="n">
-        <v>743.0899295141606</v>
+        <v>741.3114064974595</v>
       </c>
       <c r="O5" t="n">
-        <v>27.25967588791475</v>
+        <v>27.22703447857404</v>
       </c>
       <c r="P5" t="n">
-        <v>336.1731880972063</v>
+        <v>336.1138707048981</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -29894,28 +29894,28 @@
         <v>0.0867</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.037541832736659</v>
+        <v>-1.036893628107156</v>
       </c>
       <c r="J6" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K6" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09818248603048629</v>
+        <v>0.09855808944202982</v>
       </c>
       <c r="M6" t="n">
-        <v>17.81975309176876</v>
+        <v>17.77077570075831</v>
       </c>
       <c r="N6" t="n">
-        <v>588.1879773034016</v>
+        <v>586.4876345606085</v>
       </c>
       <c r="O6" t="n">
-        <v>24.25258702290132</v>
+        <v>24.21750677837437</v>
       </c>
       <c r="P6" t="n">
-        <v>335.5069409491181</v>
+        <v>335.5005234625089</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -29966,28 +29966,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-1.046399688337047</v>
+        <v>-1.044542752297778</v>
       </c>
       <c r="J7" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K7" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1127458347619661</v>
+        <v>0.1129527669441646</v>
       </c>
       <c r="M7" t="n">
-        <v>16.82085496353261</v>
+        <v>16.77936773675107</v>
       </c>
       <c r="N7" t="n">
-        <v>512.3425693760283</v>
+        <v>510.8492172831966</v>
       </c>
       <c r="O7" t="n">
-        <v>22.63498551746893</v>
+        <v>22.60197374751145</v>
       </c>
       <c r="P7" t="n">
-        <v>333.2934149196006</v>
+        <v>333.2750515829863</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30038,28 +30038,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-1.520638975295571</v>
+        <v>-1.512450797702656</v>
       </c>
       <c r="J8" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K8" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1473460575966173</v>
+        <v>0.1465515149877803</v>
       </c>
       <c r="M8" t="n">
-        <v>20.91723274706609</v>
+        <v>20.88960788060061</v>
       </c>
       <c r="N8" t="n">
-        <v>821.47185366417</v>
+        <v>819.8331379310001</v>
       </c>
       <c r="O8" t="n">
-        <v>28.66133028427274</v>
+        <v>28.63272844021331</v>
       </c>
       <c r="P8" t="n">
-        <v>333.9943252014912</v>
+        <v>333.9148090635606</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30110,28 +30110,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-1.372569391375823</v>
+        <v>-1.36862898330883</v>
       </c>
       <c r="J9" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K9" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1353345697155699</v>
+        <v>0.1352571666940534</v>
       </c>
       <c r="M9" t="n">
-        <v>20.22971640633418</v>
+        <v>20.18970885372472</v>
       </c>
       <c r="N9" t="n">
-        <v>728.9856104431188</v>
+        <v>727.0241727355187</v>
       </c>
       <c r="O9" t="n">
-        <v>26.99973352540945</v>
+        <v>26.96338578026726</v>
       </c>
       <c r="P9" t="n">
-        <v>329.6981283151771</v>
+        <v>329.6592901228171</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30182,28 +30182,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-1.158820105540091</v>
+        <v>-1.151462571700579</v>
       </c>
       <c r="J10" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K10" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09570734302156292</v>
+        <v>0.09500958356430467</v>
       </c>
       <c r="M10" t="n">
-        <v>20.05510823941031</v>
+        <v>20.03026876516647</v>
       </c>
       <c r="N10" t="n">
-        <v>759.8522228753826</v>
+        <v>758.2836067619793</v>
       </c>
       <c r="O10" t="n">
-        <v>27.5654171540244</v>
+        <v>27.53694984492617</v>
       </c>
       <c r="P10" t="n">
-        <v>328.1972549555903</v>
+        <v>328.1249447576021</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30260,28 +30260,28 @@
         <v>0.0433</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.347478391785284</v>
+        <v>-1.33652549011266</v>
       </c>
       <c r="J11" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K11" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1271821547235167</v>
+        <v>0.125758461381139</v>
       </c>
       <c r="M11" t="n">
-        <v>20.35632266589875</v>
+        <v>20.34069861089475</v>
       </c>
       <c r="N11" t="n">
-        <v>738.8633383658565</v>
+        <v>738.1555283606579</v>
       </c>
       <c r="O11" t="n">
-        <v>27.18204073217933</v>
+        <v>27.16901780264899</v>
       </c>
       <c r="P11" t="n">
-        <v>324.9955731555168</v>
+        <v>324.8867884575857</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30332,28 +30332,28 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>-0.9555286978072748</v>
+        <v>-0.9436266524940958</v>
       </c>
       <c r="J12" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K12" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06158784135635387</v>
+        <v>0.06036414661730305</v>
       </c>
       <c r="M12" t="n">
-        <v>22.45208524609791</v>
+        <v>22.43925827524825</v>
       </c>
       <c r="N12" t="n">
-        <v>817.9055485051585</v>
+        <v>817.08565951368</v>
       </c>
       <c r="O12" t="n">
-        <v>28.59904803494617</v>
+        <v>28.58471024015601</v>
       </c>
       <c r="P12" t="n">
-        <v>312.6674007564765</v>
+        <v>312.549299452748</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30404,28 +30404,28 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-0.881803763846237</v>
+        <v>-0.8733444598198213</v>
       </c>
       <c r="J13" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K13" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06187872655067728</v>
+        <v>0.06100943795420843</v>
       </c>
       <c r="M13" t="n">
-        <v>20.14000241806961</v>
+        <v>20.11841879610783</v>
       </c>
       <c r="N13" t="n">
-        <v>688.0239272295353</v>
+        <v>686.8673382764649</v>
       </c>
       <c r="O13" t="n">
-        <v>26.23021020177946</v>
+        <v>26.20815404175702</v>
       </c>
       <c r="P13" t="n">
-        <v>317.8670055234048</v>
+        <v>317.78197340092</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30482,28 +30482,28 @@
         <v>0.0303</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.9878670302013663</v>
+        <v>-0.9815945866241332</v>
       </c>
       <c r="J14" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K14" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07128226945115701</v>
+        <v>0.07074998141805156</v>
       </c>
       <c r="M14" t="n">
-        <v>21.14301191754398</v>
+        <v>21.11135619258089</v>
       </c>
       <c r="N14" t="n">
-        <v>753.3680058734423</v>
+        <v>751.6888939548002</v>
       </c>
       <c r="O14" t="n">
-        <v>27.44755008873182</v>
+        <v>27.41694537972457</v>
       </c>
       <c r="P14" t="n">
-        <v>318.8082661607964</v>
+        <v>318.7457376120859</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30560,28 +30560,28 @@
         <v>0.077</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.9907719036054419</v>
+        <v>-0.9912744671507319</v>
       </c>
       <c r="J15" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K15" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09094908609806107</v>
+        <v>0.09144890109422255</v>
       </c>
       <c r="M15" t="n">
-        <v>18.45006122637539</v>
+        <v>18.40212304309591</v>
       </c>
       <c r="N15" t="n">
-        <v>576.451330192258</v>
+        <v>574.8662644447752</v>
       </c>
       <c r="O15" t="n">
-        <v>24.00940087116415</v>
+        <v>23.97636887530669</v>
       </c>
       <c r="P15" t="n">
-        <v>315.0049302681088</v>
+        <v>315.0100039225795</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30638,28 +30638,28 @@
         <v>0.0476</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7176691263283747</v>
+        <v>-0.7209582508021768</v>
       </c>
       <c r="J16" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K16" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06169399251125862</v>
+        <v>0.06254790378982467</v>
       </c>
       <c r="M16" t="n">
-        <v>16.65352402853653</v>
+        <v>16.62283816634429</v>
       </c>
       <c r="N16" t="n">
-        <v>482.9669164794411</v>
+        <v>481.5735714957976</v>
       </c>
       <c r="O16" t="n">
-        <v>21.97650828679208</v>
+        <v>21.94478460809761</v>
       </c>
       <c r="P16" t="n">
-        <v>307.9385643732931</v>
+        <v>307.9704020955961</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -30719,7 +30719,7 @@
         <v>-0.4147519554769086</v>
       </c>
       <c r="J17" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K17" t="n">
         <v>356</v>

--- a/data/nzd0510/nzd0510.xlsx
+++ b/data/nzd0510/nzd0510.xlsx
@@ -29578,9 +29578,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0522</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1415</v>
+      </c>
       <c r="I2" t="n">
         <v>-0.5947926095054141</v>
       </c>
@@ -29654,10 +29660,10 @@
         <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0351</v>
+        <v>0.0426</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>0.119</v>
       </c>
       <c r="I3" t="n">
         <v>-1.674661373937807</v>
@@ -29729,13 +29735,13 @@
         <v>0.1334133878903855</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0464</v>
+        <v>0.0459</v>
       </c>
       <c r="H4" t="n">
-        <v>0.075</v>
+        <v>0.0919</v>
       </c>
       <c r="I4" t="n">
         <v>-1.470095364155479</v>
@@ -29807,13 +29813,13 @@
         <v>0.2001221027889956</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0391</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1377</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>-1.199303823859567</v>
@@ -29885,13 +29891,13 @@
         <v>0.2668102465265939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0493</v>
+        <v>0.0456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0867</v>
+        <v>0.0939</v>
       </c>
       <c r="I6" t="n">
         <v>-1.036858952028016</v>
@@ -29962,9 +29968,15 @@
       <c r="E7" t="n">
         <v>0.3335189614257942</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0376</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0557</v>
+      </c>
       <c r="I7" t="n">
         <v>-1.044514609907833</v>
       </c>
@@ -30034,9 +30046,15 @@
       <c r="E8" t="n">
         <v>0.4002276763250392</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.056</v>
+      </c>
       <c r="I8" t="n">
         <v>-1.512414498338882</v>
       </c>
@@ -30106,9 +30124,15 @@
       <c r="E9" t="n">
         <v>0.4669363912242952</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0566</v>
+      </c>
       <c r="I9" t="n">
         <v>-1.36865820902935</v>
       </c>
@@ -30178,9 +30202,15 @@
       <c r="E10" t="n">
         <v>0.533620663281355</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0344</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0488</v>
+      </c>
       <c r="I10" t="n">
         <v>-1.151454718083043</v>
       </c>
@@ -30251,13 +30281,13 @@
         <v>0.600213260133903</v>
       </c>
       <c r="F11" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0326</v>
+        <v>0.0349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0433</v>
+        <v>0.0619</v>
       </c>
       <c r="I11" t="n">
         <v>-1.336560867786932</v>
@@ -30328,9 +30358,15 @@
       <c r="E12" t="n">
         <v>0.6668834829778778</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0561</v>
+      </c>
       <c r="I12" t="n">
         <v>-0.9436111801202407</v>
       </c>
@@ -30400,9 +30436,15 @@
       <c r="E13" t="n">
         <v>0.733591872093903</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0321</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0425</v>
+      </c>
       <c r="I13" t="n">
         <v>-0.8733476755272948</v>
       </c>
@@ -30473,13 +30515,13 @@
         <v>0.8003005869935566</v>
       </c>
       <c r="F14" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0243</v>
+        <v>0.0331</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0303</v>
+        <v>0.0451</v>
       </c>
       <c r="I14" t="n">
         <v>-0.9815945866241328</v>
@@ -30551,13 +30593,13 @@
         <v>0.8669731569701666</v>
       </c>
       <c r="F15" t="n">
-        <v>0.055</v>
+        <v>0.035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0426</v>
+        <v>0.03</v>
       </c>
       <c r="H15" t="n">
-        <v>0.077</v>
+        <v>0.0413</v>
       </c>
       <c r="I15" t="n">
         <v>-0.9912599249675129</v>
@@ -30629,13 +30671,13 @@
         <v>0.9336791112900793</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0315</v>
+        <v>0.0293</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0476</v>
+        <v>0.0337</v>
       </c>
       <c r="I16" t="n">
         <v>-0.7209582508021768</v>
@@ -30707,13 +30749,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.035</v>
+        <v>0.08</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0311</v>
+        <v>0.0587</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0435</v>
+        <v>0.1173</v>
       </c>
       <c r="I17" t="n">
         <v>-0.4147958639414293</v>
